--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1251488.775775081</v>
+        <v>1197453.859688764</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4355692.689599359</v>
+        <v>4356860.590084111</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11522913.0354089</v>
+        <v>11460762.92314623</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6864208.727678715</v>
+        <v>6871314.595540002</v>
       </c>
     </row>
     <row r="11">
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.571302984410935</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1.571302984410935</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.571302984410935</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>90.40311736807172</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>89.91604218754225</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>55.4946497646465</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>81.40470469615315</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>56.14127127247616</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.629503935119526</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
     </row>
     <row r="25">
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>2.019283661787829</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>90.40311736807172</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="W25" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X25" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>90.40311736807172</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>89.91604218754225</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>38.64373626165987</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>51.27230592588236</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>90.40311736807172</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V27" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>90.40311736807172</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>89.91604218754222</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>89.91604218754222</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>100.6186523625792</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>92.42197337069666</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,25 +2873,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>29.59339199539344</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>98.19459998606825</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>46.40550386984549</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>88.09305158464014</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>62.98497865792596</v>
       </c>
       <c r="I30" t="n">
-        <v>24.78072444546036</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>35.54192574668842</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>81.81805424061446</v>
+        <v>90.40311736807178</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>97.61126410148486</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>28.74327171071806</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>85.91248525811793</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
     </row>
     <row r="32">
@@ -3034,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="F32" t="n">
-        <v>89.91604218754222</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>90.40311736807178</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3158,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>86.29479196296076</v>
       </c>
       <c r="U33" t="n">
-        <v>60.94120760088467</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V33" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>6.825045630383965</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>83.93421126049671</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="T34" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>5.981830927045518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>33.89317954359483</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>89.91604218754225</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
     </row>
     <row r="36">
@@ -3347,10 +3347,10 @@
         <v>73.17400353319456</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.5449203677491178</v>
       </c>
       <c r="E36" t="n">
         <v>64.28590033872817</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>18.87626411982369</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T36" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3407,10 +3407,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>35.66439075749231</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X36" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>53.0747825298964</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>36.84125965764578</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X37" t="n">
-        <v>102.0845165616965</v>
+        <v>28.31182255748626</v>
       </c>
       <c r="Y37" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>33.40610436306531</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>33.89317954359483</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3587,10 +3587,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S39" t="n">
         <v>78.32399098716505</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U39" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>102.0845165616965</v>
+        <v>92.18370328865035</v>
       </c>
       <c r="W39" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>11.59205120037721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C40" t="n">
-        <v>73.88764098195506</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>74.63179924178598</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>43.48111852549767</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>56.40313038195184</v>
       </c>
       <c r="W40" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>100.3005667610483</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>100.3005667610483</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="F41" t="n">
-        <v>100.3005667610483</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>88.34473920313131</v>
+        <v>90.40311736807178</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>100.3005667610483</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>62.98497865792596</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>40.14616727284457</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>50.90736857407263</v>
       </c>
       <c r="S42" t="n">
-        <v>100.3005667610483</v>
+        <v>39.0021112284327</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U42" t="n">
-        <v>100.3005667610483</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>88.34473920313134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>88.34473920313134</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>44.10871453810227</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,25 +3942,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>36.91157767312388</v>
       </c>
       <c r="R43" t="n">
-        <v>100.3005667610483</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U43" t="n">
-        <v>100.3005667610483</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="W43" t="n">
-        <v>100.3005667610483</v>
+        <v>9.382825156845557</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>76.46422536706568</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>90.40311736807178</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>67.34968970331144</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>76.46422536706568</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>76.46422536706568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>67.34968970331141</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>90.40311736807178</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>76.46422536706568</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X45" t="n">
-        <v>76.46422536706568</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="Y45" t="n">
-        <v>76.46422536706568</v>
+        <v>102.6375083652041</v>
       </c>
     </row>
     <row r="46">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>76.46422536706568</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>67.34968970331141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="S46" t="n">
-        <v>76.46422536706568</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>76.46422536706568</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>90.40311736807175</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
     </row>
   </sheetData>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.135799202592807</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.135799202592807</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.333829706988563</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>5.333829706988563</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>3.746654975260345</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.9446854796561</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1427159840518561</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1427159840518561</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1427159840518561</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.908826286693576</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>3.674936589335296</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>3.674936589335296</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.674936589335296</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>5.441046891977016</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>7.135799202592807</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>7.135799202592807</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>7.135799202592807</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.135799202592807</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.135799202592807</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.135799202592807</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.135799202592807</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.135799202592807</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.135799202592807</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.135799202592807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.548624470864589</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>3.746654975260345</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>3.746654975260345</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1.9446854796561</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1427159840518561</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1427159840518561</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1427159840518561</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1427159840518561</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1427159840518561</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1427159840518561</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.837468294667647</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>3.603578597309367</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>5.369688899951087</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>7.135799202592807</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>7.135799202592807</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.135799202592807</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.135799202592807</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>5.548624470864589</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>5.548624470864589</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>5.548624470864589</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>5.548624470864589</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>5.548624470864589</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>5.548624470864589</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.548624470864589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.9446854796561</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.9446854796561</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.9446854796561</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.9446854796561</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1427159840518561</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1427159840518561</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1427159840518561</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1427159840518561</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1427159840518561</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1427159840518561</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.908826286693576</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>3.674936589335296</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.369688899951087</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>7.135799202592807</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>7.135799202592807</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.135799202592807</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.333829706988563</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>5.333829706988563</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.531860211384318</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>3.531860211384318</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.9446854796561</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.9446854796561</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.9446854796561</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.9446854796561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>78.14188814362404</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.166761324935722</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="C23" t="n">
-        <v>8.166761324935722</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="D23" t="n">
-        <v>8.166761324935722</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="E23" t="n">
-        <v>8.166761324935722</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="F23" t="n">
-        <v>8.166761324935722</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="G23" t="n">
-        <v>8.166761324935722</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="H23" t="n">
-        <v>8.166761324935722</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="I23" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J23" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K23" t="n">
-        <v>109.2304327210153</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="L23" t="n">
-        <v>210.2941041170948</v>
+        <v>16.05657832410924</v>
       </c>
       <c r="M23" t="n">
-        <v>210.2941041170948</v>
+        <v>117.6677116056613</v>
       </c>
       <c r="N23" t="n">
-        <v>217.6143395586556</v>
+        <v>219.2788448872133</v>
       </c>
       <c r="O23" t="n">
-        <v>318.6780109547351</v>
+        <v>320.8899781687654</v>
       </c>
       <c r="P23" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q23" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R23" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S23" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T23" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="U23" t="n">
-        <v>317.5137812088646</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="V23" t="n">
-        <v>214.3981079142216</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="W23" t="n">
-        <v>111.2824346195787</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="X23" t="n">
-        <v>8.166761324935722</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.166761324935722</v>
+        <v>410.5500334608163</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.166761324935722</v>
+        <v>147.1463299304581</v>
       </c>
       <c r="C24" t="n">
-        <v>8.166761324935722</v>
+        <v>64.91935548989932</v>
       </c>
       <c r="D24" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="E24" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="F24" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="G24" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="H24" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="I24" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J24" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K24" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="L24" t="n">
-        <v>109.2304327210153</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="M24" t="n">
-        <v>136.8161649412977</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="N24" t="n">
-        <v>237.8798363373772</v>
+        <v>313.0444005138725</v>
       </c>
       <c r="O24" t="n">
-        <v>338.9435077334568</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="P24" t="n">
-        <v>338.9435077334568</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q24" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R24" t="n">
-        <v>400.6314966153522</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S24" t="n">
-        <v>317.5137812088646</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T24" t="n">
-        <v>214.3981079142216</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="U24" t="n">
-        <v>111.2824346195787</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="V24" t="n">
-        <v>111.2824346195787</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="W24" t="n">
-        <v>8.166761324935722</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="X24" t="n">
-        <v>8.166761324935722</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.166761324935722</v>
+        <v>203.2015317129293</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="C25" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="D25" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="E25" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="F25" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="G25" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="H25" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="I25" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J25" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K25" t="n">
-        <v>74.62263094021262</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="L25" t="n">
-        <v>101.9367559479256</v>
+        <v>100.6263000860967</v>
       </c>
       <c r="M25" t="n">
-        <v>174.5728602964013</v>
+        <v>202.2374333676487</v>
       </c>
       <c r="N25" t="n">
-        <v>218.2637109518376</v>
+        <v>303.8485666492008</v>
       </c>
       <c r="O25" t="n">
-        <v>319.3273823479171</v>
+        <v>405.4596999307528</v>
       </c>
       <c r="P25" t="n">
-        <v>405.1358225430626</v>
+        <v>405.4596999307528</v>
       </c>
       <c r="Q25" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R25" t="n">
-        <v>319.553461675317</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S25" t="n">
-        <v>317.5137812088646</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T25" t="n">
-        <v>317.5137812088646</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="U25" t="n">
-        <v>317.5137812088646</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="V25" t="n">
-        <v>317.5137812088646</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="W25" t="n">
-        <v>214.3981079142216</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="X25" t="n">
-        <v>111.2824346195787</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.166761324935722</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="C26" t="n">
-        <v>8.166761324935722</v>
+        <v>99.52728083898575</v>
       </c>
       <c r="D26" t="n">
-        <v>8.166761324935722</v>
+        <v>99.52728083898575</v>
       </c>
       <c r="E26" t="n">
-        <v>8.166761324935722</v>
+        <v>99.52728083898575</v>
       </c>
       <c r="F26" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="G26" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="H26" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="I26" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J26" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K26" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="L26" t="n">
-        <v>15.48699676649645</v>
+        <v>16.05657832410924</v>
       </c>
       <c r="M26" t="n">
-        <v>116.550668162576</v>
+        <v>117.6677116056613</v>
       </c>
       <c r="N26" t="n">
-        <v>217.6143395586556</v>
+        <v>219.2788448872133</v>
       </c>
       <c r="O26" t="n">
-        <v>318.6780109547351</v>
+        <v>320.8899781687654</v>
       </c>
       <c r="P26" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q26" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R26" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S26" t="n">
-        <v>317.5137812088646</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T26" t="n">
-        <v>214.3981079142216</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="U26" t="n">
-        <v>111.2824346195787</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="V26" t="n">
-        <v>8.166761324935722</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="W26" t="n">
-        <v>8.166761324935722</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="X26" t="n">
-        <v>8.166761324935722</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.166761324935722</v>
+        <v>306.8757825868728</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>47.2008383569154</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="C27" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="D27" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="E27" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="F27" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="G27" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="H27" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="I27" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J27" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K27" t="n">
-        <v>109.2304327210153</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="L27" t="n">
-        <v>210.2941041170948</v>
+        <v>36.32207510283092</v>
       </c>
       <c r="M27" t="n">
-        <v>311.3577755131744</v>
+        <v>137.933208384383</v>
       </c>
       <c r="N27" t="n">
-        <v>408.3380662467861</v>
+        <v>239.544341665935</v>
       </c>
       <c r="O27" t="n">
-        <v>408.3380662467861</v>
+        <v>341.1554749474871</v>
       </c>
       <c r="P27" t="n">
-        <v>408.3380662467861</v>
+        <v>341.1554749474871</v>
       </c>
       <c r="Q27" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R27" t="n">
-        <v>356.5478582408443</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S27" t="n">
-        <v>356.5478582408443</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="T27" t="n">
-        <v>356.5478582408443</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="U27" t="n">
-        <v>356.5478582408443</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="V27" t="n">
-        <v>253.4321849462013</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="W27" t="n">
-        <v>253.4321849462013</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="X27" t="n">
-        <v>150.3165116515584</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="Y27" t="n">
-        <v>47.2008383569154</v>
+        <v>8.211000669216327</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.166761324935722</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="C28" t="n">
-        <v>8.166761324935722</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="D28" t="n">
-        <v>8.166761324935722</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="E28" t="n">
-        <v>8.166761324935722</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="F28" t="n">
-        <v>8.166761324935722</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="G28" t="n">
-        <v>8.166761324935722</v>
+        <v>99.52728083898575</v>
       </c>
       <c r="H28" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="I28" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J28" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K28" t="n">
-        <v>34.5166373618049</v>
+        <v>34.92216468437709</v>
       </c>
       <c r="L28" t="n">
-        <v>110.2274353140111</v>
+        <v>110.9942506148749</v>
       </c>
       <c r="M28" t="n">
-        <v>197.8121464507264</v>
+        <v>198.9402497298818</v>
       </c>
       <c r="N28" t="n">
-        <v>289.8996700506559</v>
+        <v>291.3890613081029</v>
       </c>
       <c r="O28" t="n">
-        <v>362.6356196300483</v>
+        <v>364.486298865787</v>
       </c>
       <c r="P28" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q28" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R28" t="n">
-        <v>305.2223929521431</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S28" t="n">
-        <v>214.3981079142216</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T28" t="n">
-        <v>214.3981079142216</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="U28" t="n">
-        <v>111.2824346195787</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="V28" t="n">
-        <v>111.2824346195787</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="W28" t="n">
-        <v>111.2824346195787</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="X28" t="n">
-        <v>111.2824346195787</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.166761324935722</v>
+        <v>410.5500334608163</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.99104636285716</v>
+        <v>215.5595024171033</v>
       </c>
       <c r="C29" t="n">
-        <v>8.166761324935722</v>
+        <v>111.8852515431598</v>
       </c>
       <c r="D29" t="n">
-        <v>8.166761324935722</v>
+        <v>111.8852515431598</v>
       </c>
       <c r="E29" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="F29" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="G29" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="H29" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I29" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J29" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K29" t="n">
-        <v>109.2304327210153</v>
+        <v>16.05657832410921</v>
       </c>
       <c r="L29" t="n">
-        <v>210.2941041170948</v>
+        <v>16.05657832410921</v>
       </c>
       <c r="M29" t="n">
-        <v>311.3577755131744</v>
+        <v>117.6677116056612</v>
       </c>
       <c r="N29" t="n">
-        <v>318.6780109547351</v>
+        <v>219.2788448872133</v>
       </c>
       <c r="O29" t="n">
-        <v>318.6780109547351</v>
+        <v>320.8899781687653</v>
       </c>
       <c r="P29" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q29" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R29" t="n">
-        <v>408.3380662467861</v>
+        <v>308.9150310743727</v>
       </c>
       <c r="S29" t="n">
-        <v>408.3380662467861</v>
+        <v>215.5595024171033</v>
       </c>
       <c r="T29" t="n">
-        <v>408.3380662467861</v>
+        <v>215.5595024171033</v>
       </c>
       <c r="U29" t="n">
-        <v>408.3380662467861</v>
+        <v>215.5595024171033</v>
       </c>
       <c r="V29" t="n">
-        <v>408.3380662467861</v>
+        <v>215.5595024171033</v>
       </c>
       <c r="W29" t="n">
-        <v>408.3380662467861</v>
+        <v>215.5595024171033</v>
       </c>
       <c r="X29" t="n">
-        <v>305.2223929521431</v>
+        <v>215.5595024171033</v>
       </c>
       <c r="Y29" t="n">
-        <v>202.1067196575001</v>
+        <v>215.5595024171033</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>63.09011126519209</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="C30" t="n">
-        <v>33.19779611833003</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="D30" t="n">
-        <v>33.19779611833003</v>
+        <v>207.6893179544806</v>
       </c>
       <c r="E30" t="n">
-        <v>33.19779611833003</v>
+        <v>207.6893179544806</v>
       </c>
       <c r="F30" t="n">
-        <v>33.19779611833003</v>
+        <v>160.8150716213033</v>
       </c>
       <c r="G30" t="n">
-        <v>33.19779611833003</v>
+        <v>71.83219123277792</v>
       </c>
       <c r="H30" t="n">
-        <v>33.19779611833003</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I30" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J30" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K30" t="n">
-        <v>8.166761324935722</v>
+        <v>109.8221339507683</v>
       </c>
       <c r="L30" t="n">
-        <v>8.166761324935722</v>
+        <v>207.3277668977122</v>
       </c>
       <c r="M30" t="n">
-        <v>35.75249354521814</v>
+        <v>308.9389001792642</v>
       </c>
       <c r="N30" t="n">
-        <v>136.8161649412977</v>
+        <v>308.9389001792642</v>
       </c>
       <c r="O30" t="n">
-        <v>237.8798363373772</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="P30" t="n">
-        <v>338.9435077334568</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q30" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R30" t="n">
-        <v>372.437131149121</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S30" t="n">
-        <v>269.321457854478</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T30" t="n">
-        <v>166.2057845598351</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="U30" t="n">
-        <v>166.2057845598351</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="V30" t="n">
-        <v>63.09011126519209</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="W30" t="n">
-        <v>63.09011126519209</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="X30" t="n">
-        <v>63.09011126519209</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Y30" t="n">
-        <v>63.09011126519209</v>
+        <v>306.8757825868728</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>218.44210481263</v>
+        <v>99.52728083898579</v>
       </c>
       <c r="C31" t="n">
-        <v>218.44210481263</v>
+        <v>99.52728083898579</v>
       </c>
       <c r="D31" t="n">
-        <v>218.44210481263</v>
+        <v>99.52728083898579</v>
       </c>
       <c r="E31" t="n">
-        <v>135.7976055796861</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="F31" t="n">
-        <v>135.7976055796861</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="G31" t="n">
-        <v>135.7976055796861</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="H31" t="n">
-        <v>37.20036911353983</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I31" t="n">
-        <v>37.20036911353983</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J31" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K31" t="n">
-        <v>50.08971373920686</v>
+        <v>34.92216468437709</v>
       </c>
       <c r="L31" t="n">
-        <v>141.373588068815</v>
+        <v>110.9942506148749</v>
       </c>
       <c r="M31" t="n">
-        <v>221.6595952216675</v>
+        <v>198.9402497298818</v>
       </c>
       <c r="N31" t="n">
-        <v>322.7232666177471</v>
+        <v>291.3890613081029</v>
       </c>
       <c r="O31" t="n">
-        <v>347.0625432526464</v>
+        <v>364.4862988657869</v>
       </c>
       <c r="P31" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q31" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R31" t="n">
-        <v>321.557778107273</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S31" t="n">
-        <v>321.557778107273</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T31" t="n">
-        <v>321.557778107273</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="U31" t="n">
-        <v>321.557778107273</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V31" t="n">
-        <v>321.557778107273</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="W31" t="n">
-        <v>218.44210481263</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="X31" t="n">
-        <v>218.44210481263</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.44210481263</v>
+        <v>203.2015317129293</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>408.3380662467861</v>
+        <v>215.5595024171033</v>
       </c>
       <c r="C32" t="n">
-        <v>408.3380662467861</v>
+        <v>215.5595024171033</v>
       </c>
       <c r="D32" t="n">
-        <v>305.2223929521431</v>
+        <v>215.5595024171033</v>
       </c>
       <c r="E32" t="n">
-        <v>202.1067196575001</v>
+        <v>111.8852515431598</v>
       </c>
       <c r="F32" t="n">
-        <v>111.2824346195787</v>
+        <v>111.8852515431598</v>
       </c>
       <c r="G32" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="H32" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I32" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J32" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K32" t="n">
-        <v>109.2304327210153</v>
+        <v>16.05657832410921</v>
       </c>
       <c r="L32" t="n">
-        <v>109.2304327210153</v>
+        <v>117.6677116056612</v>
       </c>
       <c r="M32" t="n">
-        <v>116.550668162576</v>
+        <v>219.2788448872133</v>
       </c>
       <c r="N32" t="n">
-        <v>217.6143395586556</v>
+        <v>320.8899781687653</v>
       </c>
       <c r="O32" t="n">
-        <v>318.6780109547351</v>
+        <v>320.8899781687653</v>
       </c>
       <c r="P32" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q32" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R32" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S32" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T32" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="U32" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="V32" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="W32" t="n">
-        <v>408.3380662467861</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="X32" t="n">
-        <v>408.3380662467861</v>
+        <v>215.5595024171033</v>
       </c>
       <c r="Y32" t="n">
-        <v>408.3380662467861</v>
+        <v>215.5595024171033</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>140.5499443030712</v>
+        <v>140.5941836473518</v>
       </c>
       <c r="C33" t="n">
-        <v>60.39911715999745</v>
+        <v>60.44335650427805</v>
       </c>
       <c r="D33" t="n">
-        <v>60.39911715999745</v>
+        <v>60.44335650427805</v>
       </c>
       <c r="E33" t="n">
-        <v>60.39911715999745</v>
+        <v>60.44335650427805</v>
       </c>
       <c r="F33" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="G33" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="H33" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I33" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J33" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K33" t="n">
-        <v>109.2304327210153</v>
+        <v>109.8221339507683</v>
       </c>
       <c r="L33" t="n">
-        <v>210.2941041170948</v>
+        <v>207.3277668977122</v>
       </c>
       <c r="M33" t="n">
-        <v>311.3577755131744</v>
+        <v>308.9389001792642</v>
       </c>
       <c r="N33" t="n">
-        <v>338.9435077334568</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="O33" t="n">
-        <v>338.9435077334568</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="P33" t="n">
-        <v>338.9435077334568</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q33" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R33" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S33" t="n">
-        <v>408.3380662467861</v>
+        <v>331.4348910495385</v>
       </c>
       <c r="T33" t="n">
-        <v>408.3380662467861</v>
+        <v>244.2684345212953</v>
       </c>
       <c r="U33" t="n">
-        <v>346.7812908923571</v>
+        <v>140.5941836473518</v>
       </c>
       <c r="V33" t="n">
-        <v>243.6656175977141</v>
+        <v>140.5941836473518</v>
       </c>
       <c r="W33" t="n">
-        <v>243.6656175977141</v>
+        <v>140.5941836473518</v>
       </c>
       <c r="X33" t="n">
-        <v>243.6656175977141</v>
+        <v>140.5941836473518</v>
       </c>
       <c r="Y33" t="n">
-        <v>140.5499443030712</v>
+        <v>140.5941836473518</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.166761324935722</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="C34" t="n">
-        <v>8.166761324935722</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="D34" t="n">
-        <v>8.166761324935722</v>
+        <v>147.3870944386469</v>
       </c>
       <c r="E34" t="n">
-        <v>8.166761324935722</v>
+        <v>140.4931089534106</v>
       </c>
       <c r="F34" t="n">
-        <v>8.166761324935722</v>
+        <v>140.4931089534106</v>
       </c>
       <c r="G34" t="n">
-        <v>8.166761324935722</v>
+        <v>140.4931089534106</v>
       </c>
       <c r="H34" t="n">
-        <v>8.166761324935722</v>
+        <v>70.92948027586836</v>
       </c>
       <c r="I34" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J34" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K34" t="n">
-        <v>78.54555273281774</v>
+        <v>78.58979207709834</v>
       </c>
       <c r="L34" t="n">
-        <v>105.8596777405307</v>
+        <v>180.2009253586504</v>
       </c>
       <c r="M34" t="n">
-        <v>186.0785907317281</v>
+        <v>245.6633786864015</v>
       </c>
       <c r="N34" t="n">
-        <v>287.1422621278076</v>
+        <v>289.3542293418378</v>
       </c>
       <c r="O34" t="n">
-        <v>311.4815387627069</v>
+        <v>313.6935059767371</v>
       </c>
       <c r="P34" t="n">
-        <v>401.2129007504575</v>
+        <v>403.4248679644877</v>
       </c>
       <c r="Q34" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R34" t="n">
-        <v>323.5560346705267</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S34" t="n">
-        <v>323.5560346705267</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="T34" t="n">
-        <v>220.4403613758838</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="U34" t="n">
-        <v>220.4403613758838</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="V34" t="n">
-        <v>117.3246880812408</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="W34" t="n">
-        <v>14.20901478659786</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="X34" t="n">
-        <v>14.20901478659786</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.166761324935722</v>
+        <v>203.2015317129293</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>317.5137812088646</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="C35" t="n">
-        <v>317.5137812088646</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="D35" t="n">
-        <v>317.5137812088646</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="E35" t="n">
-        <v>317.5137812088646</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="F35" t="n">
-        <v>317.5137812088646</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="G35" t="n">
-        <v>214.3981079142216</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="H35" t="n">
-        <v>111.2824346195787</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I35" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J35" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K35" t="n">
-        <v>109.2304327210153</v>
+        <v>16.05657832410921</v>
       </c>
       <c r="L35" t="n">
-        <v>109.2304327210153</v>
+        <v>16.05657832410921</v>
       </c>
       <c r="M35" t="n">
-        <v>116.550668162576</v>
+        <v>117.6677116056612</v>
       </c>
       <c r="N35" t="n">
-        <v>217.6143395586556</v>
+        <v>219.2788448872133</v>
       </c>
       <c r="O35" t="n">
-        <v>318.6780109547351</v>
+        <v>320.8899781687653</v>
       </c>
       <c r="P35" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q35" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R35" t="n">
-        <v>408.3380662467861</v>
+        <v>353.4692881835668</v>
       </c>
       <c r="S35" t="n">
-        <v>408.3380662467861</v>
+        <v>249.7950373096234</v>
       </c>
       <c r="T35" t="n">
-        <v>408.3380662467861</v>
+        <v>249.7950373096234</v>
       </c>
       <c r="U35" t="n">
-        <v>408.3380662467861</v>
+        <v>249.7950373096234</v>
       </c>
       <c r="V35" t="n">
-        <v>408.3380662467861</v>
+        <v>249.7950373096234</v>
       </c>
       <c r="W35" t="n">
-        <v>408.3380662467861</v>
+        <v>249.7950373096234</v>
       </c>
       <c r="X35" t="n">
-        <v>317.5137812088646</v>
+        <v>146.1207864356799</v>
       </c>
       <c r="Y35" t="n">
-        <v>317.5137812088646</v>
+        <v>42.44653556173635</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>92.16894764670528</v>
+        <v>153.8475052935802</v>
       </c>
       <c r="C36" t="n">
-        <v>92.16894764670528</v>
+        <v>73.69667815050653</v>
       </c>
       <c r="D36" t="n">
-        <v>92.16894764670528</v>
+        <v>73.14625353661853</v>
       </c>
       <c r="E36" t="n">
-        <v>27.23369477930309</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="F36" t="n">
-        <v>27.23369477930309</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="G36" t="n">
-        <v>27.23369477930309</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="H36" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I36" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J36" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K36" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="L36" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="M36" t="n">
-        <v>35.75249354521814</v>
+        <v>109.8221339507683</v>
       </c>
       <c r="N36" t="n">
-        <v>136.8161649412977</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="O36" t="n">
-        <v>237.8798363373772</v>
+        <v>239.544341665935</v>
       </c>
       <c r="P36" t="n">
-        <v>338.9435077334568</v>
+        <v>341.155474947487</v>
       </c>
       <c r="Q36" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R36" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S36" t="n">
-        <v>408.3380662467861</v>
+        <v>331.4348910495385</v>
       </c>
       <c r="T36" t="n">
-        <v>305.2223929521431</v>
+        <v>331.4348910495385</v>
       </c>
       <c r="U36" t="n">
-        <v>305.2223929521431</v>
+        <v>331.4348910495385</v>
       </c>
       <c r="V36" t="n">
-        <v>305.2223929521431</v>
+        <v>331.4348910495385</v>
       </c>
       <c r="W36" t="n">
-        <v>269.197755823363</v>
+        <v>227.760640175595</v>
       </c>
       <c r="X36" t="n">
-        <v>166.08208252872</v>
+        <v>227.760640175595</v>
       </c>
       <c r="Y36" t="n">
-        <v>166.08208252872</v>
+        <v>227.760640175595</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61.77765276927552</v>
+        <v>70.92948027586836</v>
       </c>
       <c r="C37" t="n">
-        <v>61.77765276927552</v>
+        <v>70.92948027586836</v>
       </c>
       <c r="D37" t="n">
-        <v>61.77765276927552</v>
+        <v>70.92948027586836</v>
       </c>
       <c r="E37" t="n">
-        <v>8.166761324935722</v>
+        <v>70.92948027586836</v>
       </c>
       <c r="F37" t="n">
-        <v>8.166761324935722</v>
+        <v>70.92948027586836</v>
       </c>
       <c r="G37" t="n">
-        <v>8.166761324935722</v>
+        <v>70.92948027586836</v>
       </c>
       <c r="H37" t="n">
-        <v>8.166761324935722</v>
+        <v>70.92948027586836</v>
       </c>
       <c r="I37" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J37" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K37" t="n">
-        <v>78.54555273281774</v>
+        <v>71.27734311211861</v>
       </c>
       <c r="L37" t="n">
-        <v>105.8596777405307</v>
+        <v>98.59146811983159</v>
       </c>
       <c r="M37" t="n">
-        <v>206.9233491366103</v>
+        <v>200.2026014013836</v>
       </c>
       <c r="N37" t="n">
-        <v>300.149229354378</v>
+        <v>301.8137346829357</v>
       </c>
       <c r="O37" t="n">
-        <v>401.2129007504575</v>
+        <v>403.4248679644877</v>
       </c>
       <c r="P37" t="n">
-        <v>401.2129007504575</v>
+        <v>403.4248679644877</v>
       </c>
       <c r="Q37" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R37" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S37" t="n">
-        <v>408.3380662467861</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="T37" t="n">
-        <v>408.3380662467861</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="U37" t="n">
-        <v>408.3380662467861</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="V37" t="n">
-        <v>371.1246726532045</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="W37" t="n">
-        <v>268.0089993585615</v>
+        <v>99.52728083898579</v>
       </c>
       <c r="X37" t="n">
-        <v>164.8933260639185</v>
+        <v>70.92948027586836</v>
       </c>
       <c r="Y37" t="n">
-        <v>61.77765276927552</v>
+        <v>70.92948027586836</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>317.5137812088646</v>
+        <v>249.7950373096234</v>
       </c>
       <c r="C38" t="n">
-        <v>214.3981079142216</v>
+        <v>249.7950373096234</v>
       </c>
       <c r="D38" t="n">
-        <v>111.2824346195787</v>
+        <v>146.1207864356799</v>
       </c>
       <c r="E38" t="n">
-        <v>111.2824346195787</v>
+        <v>42.44653556173635</v>
       </c>
       <c r="F38" t="n">
-        <v>111.2824346195787</v>
+        <v>42.44653556173635</v>
       </c>
       <c r="G38" t="n">
-        <v>8.166761324935722</v>
+        <v>42.44653556173635</v>
       </c>
       <c r="H38" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I38" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J38" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K38" t="n">
-        <v>15.48699676649645</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="L38" t="n">
-        <v>116.550668162576</v>
+        <v>16.05657832410921</v>
       </c>
       <c r="M38" t="n">
-        <v>217.6143395586556</v>
+        <v>117.6677116056612</v>
       </c>
       <c r="N38" t="n">
-        <v>318.6780109547351</v>
+        <v>219.2788448872133</v>
       </c>
       <c r="O38" t="n">
-        <v>318.6780109547351</v>
+        <v>320.8899781687653</v>
       </c>
       <c r="P38" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q38" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R38" t="n">
-        <v>351.2573209695366</v>
+        <v>353.4692881835668</v>
       </c>
       <c r="S38" t="n">
-        <v>351.2573209695366</v>
+        <v>353.4692881835668</v>
       </c>
       <c r="T38" t="n">
-        <v>351.2573209695366</v>
+        <v>249.7950373096234</v>
       </c>
       <c r="U38" t="n">
-        <v>351.2573209695366</v>
+        <v>249.7950373096234</v>
       </c>
       <c r="V38" t="n">
-        <v>351.2573209695366</v>
+        <v>249.7950373096234</v>
       </c>
       <c r="W38" t="n">
-        <v>351.2573209695366</v>
+        <v>249.7950373096234</v>
       </c>
       <c r="X38" t="n">
-        <v>351.2573209695366</v>
+        <v>249.7950373096234</v>
       </c>
       <c r="Y38" t="n">
-        <v>351.2573209695366</v>
+        <v>249.7950373096234</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8.166761324935722</v>
+        <v>127.7784610598165</v>
       </c>
       <c r="C39" t="n">
-        <v>8.166761324935722</v>
+        <v>127.7784610598165</v>
       </c>
       <c r="D39" t="n">
-        <v>8.166761324935722</v>
+        <v>73.14625353661853</v>
       </c>
       <c r="E39" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="F39" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="G39" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="H39" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I39" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J39" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K39" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="L39" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="M39" t="n">
-        <v>105.1470520585474</v>
+        <v>109.8221339507683</v>
       </c>
       <c r="N39" t="n">
-        <v>206.210723454627</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="O39" t="n">
-        <v>307.2743948507065</v>
+        <v>313.0444005138724</v>
       </c>
       <c r="P39" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q39" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R39" t="n">
-        <v>408.3380662467861</v>
+        <v>403.6827061517553</v>
       </c>
       <c r="S39" t="n">
-        <v>329.2229238355083</v>
+        <v>324.5675637404775</v>
       </c>
       <c r="T39" t="n">
-        <v>329.2229238355083</v>
+        <v>220.893312866534</v>
       </c>
       <c r="U39" t="n">
-        <v>226.1072505408653</v>
+        <v>220.893312866534</v>
       </c>
       <c r="V39" t="n">
-        <v>122.9915772462223</v>
+        <v>127.7784610598165</v>
       </c>
       <c r="W39" t="n">
-        <v>19.87590395157937</v>
+        <v>127.7784610598165</v>
       </c>
       <c r="X39" t="n">
-        <v>19.87590395157937</v>
+        <v>127.7784610598165</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.166761324935722</v>
+        <v>127.7784610598165</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>158.1863979145731</v>
+        <v>77.77462934675856</v>
       </c>
       <c r="C40" t="n">
-        <v>83.55241712471955</v>
+        <v>77.77462934675856</v>
       </c>
       <c r="D40" t="n">
-        <v>83.55241712471955</v>
+        <v>77.77462934675856</v>
       </c>
       <c r="E40" t="n">
-        <v>83.55241712471955</v>
+        <v>77.77462934675856</v>
       </c>
       <c r="F40" t="n">
-        <v>83.55241712471955</v>
+        <v>77.77462934675856</v>
       </c>
       <c r="G40" t="n">
-        <v>8.166761324935722</v>
+        <v>77.77462934675856</v>
       </c>
       <c r="H40" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="I40" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="J40" t="n">
-        <v>8.166761324935722</v>
+        <v>8.211000669216325</v>
       </c>
       <c r="K40" t="n">
-        <v>78.54555273281774</v>
+        <v>78.58979207709834</v>
       </c>
       <c r="L40" t="n">
-        <v>159.8975197660762</v>
+        <v>180.2009253586504</v>
       </c>
       <c r="M40" t="n">
-        <v>199.0855579582984</v>
+        <v>281.8120586402024</v>
       </c>
       <c r="N40" t="n">
-        <v>300.149229354378</v>
+        <v>379.0855913295884</v>
       </c>
       <c r="O40" t="n">
-        <v>401.2129007504575</v>
+        <v>403.4248679644877</v>
       </c>
       <c r="P40" t="n">
-        <v>401.2129007504575</v>
+        <v>403.4248679644877</v>
       </c>
       <c r="Q40" t="n">
-        <v>408.3380662467861</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R40" t="n">
-        <v>408.3380662467861</v>
+        <v>325.768001884557</v>
       </c>
       <c r="S40" t="n">
-        <v>408.3380662467861</v>
+        <v>325.768001884557</v>
       </c>
       <c r="T40" t="n">
-        <v>364.4177445038591</v>
+        <v>325.768001884557</v>
       </c>
       <c r="U40" t="n">
-        <v>261.3020712092161</v>
+        <v>222.0937510106135</v>
       </c>
       <c r="V40" t="n">
-        <v>261.3020712092161</v>
+        <v>165.1208920389449</v>
       </c>
       <c r="W40" t="n">
-        <v>158.1863979145731</v>
+        <v>165.1208920389449</v>
       </c>
       <c r="X40" t="n">
-        <v>158.1863979145731</v>
+        <v>165.1208920389449</v>
       </c>
       <c r="Y40" t="n">
-        <v>158.1863979145731</v>
+        <v>165.1208920389449</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>210.6514529389613</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="C41" t="n">
-        <v>109.3377491399226</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="D41" t="n">
-        <v>109.3377491399226</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="E41" t="n">
-        <v>109.3377491399226</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="F41" t="n">
-        <v>8.024045340883866</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G41" t="n">
-        <v>8.024045340883866</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H41" t="n">
-        <v>8.024045340883866</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I41" t="n">
-        <v>8.024045340883866</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J41" t="n">
-        <v>8.024045340883866</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K41" t="n">
-        <v>8.024045340883866</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L41" t="n">
-        <v>107.3216064343217</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="M41" t="n">
-        <v>206.6191675277595</v>
+        <v>117.6677116056613</v>
       </c>
       <c r="N41" t="n">
-        <v>301.9047059507554</v>
+        <v>219.2788448872134</v>
       </c>
       <c r="O41" t="n">
-        <v>401.2022670441933</v>
+        <v>320.8899781687654</v>
       </c>
       <c r="P41" t="n">
-        <v>401.2022670441933</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q41" t="n">
-        <v>401.2022670441933</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R41" t="n">
-        <v>311.965156738</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="S41" t="n">
-        <v>311.965156738</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="T41" t="n">
-        <v>311.965156738</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="U41" t="n">
-        <v>311.965156738</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="V41" t="n">
-        <v>311.965156738</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="W41" t="n">
-        <v>311.965156738</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="X41" t="n">
-        <v>311.965156738</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="Y41" t="n">
-        <v>311.965156738</v>
+        <v>111.8852515431599</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>109.3377491399226</v>
+        <v>216.0581262207058</v>
       </c>
       <c r="C42" t="n">
-        <v>109.3377491399226</v>
+        <v>216.0581262207058</v>
       </c>
       <c r="D42" t="n">
-        <v>109.3377491399226</v>
+        <v>216.0581262207058</v>
       </c>
       <c r="E42" t="n">
-        <v>8.024045340883866</v>
+        <v>112.3838753467623</v>
       </c>
       <c r="F42" t="n">
-        <v>8.024045340883866</v>
+        <v>112.3838753467623</v>
       </c>
       <c r="G42" t="n">
-        <v>8.024045340883866</v>
+        <v>112.3838753467623</v>
       </c>
       <c r="H42" t="n">
-        <v>8.024045340883866</v>
+        <v>48.76268478320075</v>
       </c>
       <c r="I42" t="n">
-        <v>8.024045340883866</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J42" t="n">
-        <v>8.024045340883866</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K42" t="n">
-        <v>8.024045340883866</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="L42" t="n">
-        <v>107.3216064343217</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="M42" t="n">
-        <v>206.6191675277595</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="N42" t="n">
-        <v>301.9047059507554</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="O42" t="n">
-        <v>401.2022670441933</v>
+        <v>313.0444005138725</v>
       </c>
       <c r="P42" t="n">
-        <v>401.2022670441933</v>
+        <v>341.1554749474871</v>
       </c>
       <c r="Q42" t="n">
-        <v>401.2022670441933</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R42" t="n">
-        <v>401.2022670441933</v>
+        <v>359.1284490425612</v>
       </c>
       <c r="S42" t="n">
-        <v>299.8885632451546</v>
+        <v>319.7323770946494</v>
       </c>
       <c r="T42" t="n">
-        <v>299.8885632451546</v>
+        <v>216.0581262207058</v>
       </c>
       <c r="U42" t="n">
-        <v>198.5748594461159</v>
+        <v>216.0581262207058</v>
       </c>
       <c r="V42" t="n">
-        <v>198.5748594461159</v>
+        <v>216.0581262207058</v>
       </c>
       <c r="W42" t="n">
-        <v>198.5748594461159</v>
+        <v>216.0581262207058</v>
       </c>
       <c r="X42" t="n">
-        <v>198.5748594461159</v>
+        <v>216.0581262207058</v>
       </c>
       <c r="Y42" t="n">
-        <v>109.3377491399226</v>
+        <v>216.0581262207058</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8.024045340883866</v>
+        <v>52.76525777841054</v>
       </c>
       <c r="C43" t="n">
-        <v>8.024045340883866</v>
+        <v>52.76525777841054</v>
       </c>
       <c r="D43" t="n">
-        <v>8.024045340883866</v>
+        <v>52.76525777841054</v>
       </c>
       <c r="E43" t="n">
-        <v>8.024045340883866</v>
+        <v>52.76525777841054</v>
       </c>
       <c r="F43" t="n">
-        <v>8.024045340883866</v>
+        <v>52.76525777841054</v>
       </c>
       <c r="G43" t="n">
-        <v>8.024045340883866</v>
+        <v>52.76525777841054</v>
       </c>
       <c r="H43" t="n">
-        <v>8.024045340883866</v>
+        <v>52.76525777841054</v>
       </c>
       <c r="I43" t="n">
-        <v>8.024045340883866</v>
+        <v>52.76525777841054</v>
       </c>
       <c r="J43" t="n">
-        <v>8.024045340883866</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K43" t="n">
-        <v>33.20840750799621</v>
+        <v>34.92216468437709</v>
       </c>
       <c r="L43" t="n">
-        <v>107.7536915904456</v>
+        <v>110.9942506148749</v>
       </c>
       <c r="M43" t="n">
-        <v>194.1728888574041</v>
+        <v>198.9402497298818</v>
       </c>
       <c r="N43" t="n">
-        <v>285.0948985875768</v>
+        <v>291.389061308103</v>
       </c>
       <c r="O43" t="n">
-        <v>356.6653342972123</v>
+        <v>364.486298865787</v>
       </c>
       <c r="P43" t="n">
-        <v>401.2022670441933</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q43" t="n">
-        <v>401.2022670441933</v>
+        <v>373.265611568772</v>
       </c>
       <c r="R43" t="n">
-        <v>299.8885632451546</v>
+        <v>373.265611568772</v>
       </c>
       <c r="S43" t="n">
-        <v>299.8885632451546</v>
+        <v>373.265611568772</v>
       </c>
       <c r="T43" t="n">
-        <v>299.8885632451546</v>
+        <v>269.5913606948285</v>
       </c>
       <c r="U43" t="n">
-        <v>198.5748594461159</v>
+        <v>165.9171098208849</v>
       </c>
       <c r="V43" t="n">
-        <v>198.5748594461159</v>
+        <v>62.24285894694141</v>
       </c>
       <c r="W43" t="n">
-        <v>97.26115564707715</v>
+        <v>52.76525777841054</v>
       </c>
       <c r="X43" t="n">
-        <v>97.26115564707715</v>
+        <v>52.76525777841054</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.26115564707715</v>
+        <v>52.76525777841054</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.117138029365255</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="C44" t="n">
-        <v>6.117138029365255</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="D44" t="n">
-        <v>6.117138029365255</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="E44" t="n">
-        <v>6.117138029365255</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="F44" t="n">
-        <v>6.117138029365255</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="G44" t="n">
-        <v>6.117138029365255</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="H44" t="n">
-        <v>6.117138029365255</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="I44" t="n">
-        <v>6.117138029365255</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J44" t="n">
-        <v>6.117138029365255</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K44" t="n">
-        <v>6.117138029365255</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L44" t="n">
-        <v>6.117138029365255</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="M44" t="n">
-        <v>81.81672114276027</v>
+        <v>117.6677116056613</v>
       </c>
       <c r="N44" t="n">
-        <v>154.4577352414727</v>
+        <v>219.2788448872134</v>
       </c>
       <c r="O44" t="n">
-        <v>230.1573183548677</v>
+        <v>320.8899781687654</v>
       </c>
       <c r="P44" t="n">
-        <v>305.8569014682627</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q44" t="n">
-        <v>305.8569014682627</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R44" t="n">
-        <v>237.8269118689582</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="S44" t="n">
-        <v>237.8269118689582</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="T44" t="n">
-        <v>237.8269118689582</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="U44" t="n">
-        <v>237.8269118689582</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="V44" t="n">
-        <v>237.8269118689582</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="W44" t="n">
-        <v>160.5903205890939</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="X44" t="n">
-        <v>160.5903205890939</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Y44" t="n">
-        <v>83.35372930922958</v>
+        <v>410.5500334608164</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>74.14712762866971</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="C45" t="n">
-        <v>74.14712762866971</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="D45" t="n">
-        <v>74.14712762866971</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="E45" t="n">
-        <v>6.117138029365255</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="F45" t="n">
-        <v>6.117138029365255</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G45" t="n">
-        <v>6.117138029365255</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H45" t="n">
-        <v>6.117138029365255</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I45" t="n">
-        <v>6.117138029365255</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J45" t="n">
-        <v>6.117138029365255</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K45" t="n">
-        <v>6.117138029365255</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L45" t="n">
-        <v>81.81672114276027</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="M45" t="n">
-        <v>154.4577352414727</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="N45" t="n">
-        <v>230.1573183548677</v>
+        <v>308.9389001792644</v>
       </c>
       <c r="O45" t="n">
-        <v>305.8569014682627</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="P45" t="n">
-        <v>305.8569014682627</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q45" t="n">
-        <v>305.8569014682627</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R45" t="n">
-        <v>305.8569014682627</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="S45" t="n">
-        <v>305.8569014682627</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="T45" t="n">
-        <v>305.8569014682627</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="U45" t="n">
-        <v>305.8569014682627</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="V45" t="n">
-        <v>305.8569014682627</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="W45" t="n">
-        <v>228.6203101883984</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="X45" t="n">
-        <v>151.383718908534</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="Y45" t="n">
-        <v>74.14712762866971</v>
+        <v>8.211000669216329</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.383718908534</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="C46" t="n">
-        <v>151.383718908534</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="D46" t="n">
-        <v>151.383718908534</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="E46" t="n">
-        <v>151.383718908534</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="F46" t="n">
-        <v>151.383718908534</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G46" t="n">
-        <v>151.383718908534</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H46" t="n">
-        <v>74.14712762866971</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I46" t="n">
-        <v>6.117138029365255</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="J46" t="n">
-        <v>6.117138029365255</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="K46" t="n">
-        <v>15.72842381907559</v>
+        <v>34.92216468437712</v>
       </c>
       <c r="L46" t="n">
-        <v>74.70063152412294</v>
+        <v>110.9942506148749</v>
       </c>
       <c r="M46" t="n">
-        <v>145.5467524136795</v>
+        <v>198.9402497298819</v>
       </c>
       <c r="N46" t="n">
-        <v>220.8956857664502</v>
+        <v>291.389061308103</v>
       </c>
       <c r="O46" t="n">
-        <v>276.8930450986838</v>
+        <v>364.486298865787</v>
       </c>
       <c r="P46" t="n">
-        <v>305.8569014682627</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q46" t="n">
-        <v>305.8569014682627</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R46" t="n">
-        <v>305.8569014682627</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="S46" t="n">
-        <v>228.6203101883984</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="T46" t="n">
-        <v>151.383718908534</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="U46" t="n">
-        <v>151.383718908534</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V46" t="n">
-        <v>151.383718908534</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="W46" t="n">
-        <v>151.383718908534</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="X46" t="n">
-        <v>151.383718908534</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="Y46" t="n">
-        <v>151.383718908534</v>
+        <v>111.8852515431599</v>
       </c>
     </row>
   </sheetData>
@@ -9166,10 +9166,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>221.8738008456288</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>237.5503647706354</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
         <v>230.3462332272727</v>
@@ -9178,10 +9178,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>231.8821612223349</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>232.9448667760936</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9248,16 +9248,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>140.2662508006982</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>143.9179837226665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>133.1256618839815</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>144.3801942450926</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9327,16 +9327,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>136.6686260818865</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M19" t="n">
-        <v>140.7097337482533</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N19" t="n">
-        <v>129.3974154860572</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O19" t="n">
-        <v>140.240488252491</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9406,16 +9406,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>254.6833393357264</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
         <v>231.2329957552695</v>
@@ -9482,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>163.1395076939139</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9500,7 +9500,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9564,16 +9564,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M22" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -9640,19 +9640,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>322.174367606677</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>337.8509315316837</v>
+        <v>243.6912408840205</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>332.9837415924768</v>
       </c>
       <c r="N23" t="n">
-        <v>236.8072408102886</v>
+        <v>332.050571961795</v>
       </c>
       <c r="O23" t="n">
-        <v>332.1827279833832</v>
+        <v>332.7357197868908</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9722,22 +9722,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>240.6388963415707</v>
+        <v>241.1918881450783</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9984099021016</v>
+        <v>244.7715422872224</v>
       </c>
       <c r="N24" t="n">
-        <v>233.4262286450298</v>
+        <v>233.9792204485374</v>
       </c>
       <c r="O24" t="n">
-        <v>244.680761006141</v>
+        <v>241.0867827746908</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9880,16 +9880,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>243.1605921836849</v>
+        <v>243.6912408840205</v>
       </c>
       <c r="M26" t="n">
-        <v>332.4307497889693</v>
+        <v>332.9837415924768</v>
       </c>
       <c r="N26" t="n">
-        <v>331.4975801582874</v>
+        <v>332.050571961795</v>
       </c>
       <c r="O26" t="n">
-        <v>332.1827279833832</v>
+        <v>332.7357197868908</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>239.9259555360555</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>240.6388963415707</v>
+        <v>166.949404460293</v>
       </c>
       <c r="M27" t="n">
-        <v>244.2185504837148</v>
+        <v>244.7715422872224</v>
       </c>
       <c r="N27" t="n">
-        <v>229.3016017132441</v>
+        <v>233.9792204485374</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>245.2337528096485</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10114,19 +10114,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>322.174367606677</v>
+        <v>228.0146769590138</v>
       </c>
       <c r="L29" t="n">
-        <v>337.8509315316837</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>332.4307497889693</v>
+        <v>332.9837415924768</v>
       </c>
       <c r="N29" t="n">
-        <v>236.8072408102886</v>
+        <v>332.050571961795</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>332.7357197868908</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>237.0449181101205</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9984099021016</v>
+        <v>244.7715422872224</v>
       </c>
       <c r="N30" t="n">
-        <v>233.4262286450298</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>244.680761006141</v>
+        <v>245.2337528096485</v>
       </c>
       <c r="P30" t="n">
-        <v>236.0589239760268</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10351,19 +10351,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>322.174367606677</v>
+        <v>228.0146769590138</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>338.4039233351913</v>
       </c>
       <c r="M32" t="n">
-        <v>237.7404104409704</v>
+        <v>332.9837415924768</v>
       </c>
       <c r="N32" t="n">
-        <v>331.4975801582874</v>
+        <v>332.050571961795</v>
       </c>
       <c r="O32" t="n">
-        <v>332.1827279833832</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>239.9259555360555</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L33" t="n">
-        <v>240.6388963415707</v>
+        <v>237.0449181101205</v>
       </c>
       <c r="M33" t="n">
-        <v>244.2185504837148</v>
+        <v>244.7715422872224</v>
       </c>
       <c r="N33" t="n">
-        <v>159.2060880634166</v>
+        <v>233.9792204485374</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
@@ -10448,7 +10448,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,19 +10588,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>322.174367606677</v>
+        <v>228.0146769590138</v>
       </c>
       <c r="L35" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
-        <v>237.7404104409704</v>
+        <v>332.9837415924768</v>
       </c>
       <c r="N35" t="n">
-        <v>331.4975801582874</v>
+        <v>332.050571961795</v>
       </c>
       <c r="O35" t="n">
-        <v>332.1827279833832</v>
+        <v>332.7357197868908</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10673,16 +10673,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9984099021016</v>
+        <v>244.7715422872224</v>
       </c>
       <c r="N36" t="n">
-        <v>233.4262286450298</v>
+        <v>233.9792204485374</v>
       </c>
       <c r="O36" t="n">
-        <v>244.680761006141</v>
+        <v>170.9912691248632</v>
       </c>
       <c r="P36" t="n">
-        <v>236.0589239760268</v>
+        <v>236.6119157795343</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10825,19 +10825,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>227.4840282586783</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>337.8509315316837</v>
+        <v>243.6912408840205</v>
       </c>
       <c r="M38" t="n">
-        <v>332.4307497889693</v>
+        <v>332.9837415924768</v>
       </c>
       <c r="N38" t="n">
-        <v>331.4975801582874</v>
+        <v>332.050571961795</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>332.7357197868908</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10910,16 +10910,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>240.0939235519292</v>
+        <v>244.7715422872224</v>
       </c>
       <c r="N39" t="n">
-        <v>233.4262286450298</v>
+        <v>233.9792204485374</v>
       </c>
       <c r="O39" t="n">
-        <v>244.680761006141</v>
+        <v>245.2337528096485</v>
       </c>
       <c r="P39" t="n">
-        <v>236.0589239760268</v>
+        <v>232.4649457445766</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>322.7273594101846</v>
       </c>
       <c r="L41" t="n">
-        <v>336.0669817310355</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>330.646799988321</v>
+        <v>238.271059141306</v>
       </c>
       <c r="N41" t="n">
-        <v>325.6610822056777</v>
+        <v>332.050571961795</v>
       </c>
       <c r="O41" t="n">
-        <v>330.398778182735</v>
+        <v>332.7357197868909</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11144,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>238.8549465409225</v>
+        <v>241.1918881450783</v>
       </c>
       <c r="M42" t="n">
-        <v>242.4346006830666</v>
+        <v>244.7715422872224</v>
       </c>
       <c r="N42" t="n">
-        <v>227.5897306924201</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>242.8968112054928</v>
+        <v>245.2337528096485</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>162.369432094749</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>322.7273594101846</v>
       </c>
       <c r="L44" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>306.8104585943384</v>
+        <v>238.271059141306</v>
       </c>
       <c r="N44" t="n">
-        <v>302.787825312462</v>
+        <v>332.050571961795</v>
       </c>
       <c r="O44" t="n">
-        <v>306.5624367887524</v>
+        <v>332.7357197868909</v>
       </c>
       <c r="P44" t="n">
-        <v>307.6972211223352</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L45" t="n">
-        <v>215.0186051469399</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>215.5087956378894</v>
+        <v>244.7715422872224</v>
       </c>
       <c r="N45" t="n">
-        <v>207.805937450399</v>
+        <v>229.8322504135797</v>
       </c>
       <c r="O45" t="n">
-        <v>219.0604698115101</v>
+        <v>245.2337528096485</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>293.3372088120655</v>
+        <v>291.430047371318</v>
       </c>
       <c r="C17" t="n">
-        <v>275.8762589195925</v>
+        <v>273.969097478845</v>
       </c>
       <c r="D17" t="n">
-        <v>263.5024589686197</v>
+        <v>263.3792473285204</v>
       </c>
       <c r="E17" t="n">
-        <v>292.5337372208467</v>
+        <v>290.6265757800992</v>
       </c>
       <c r="F17" t="n">
-        <v>315.9081099058855</v>
+        <v>315.5722514495488</v>
       </c>
       <c r="G17" t="n">
-        <v>324.1221548630718</v>
+        <v>323.9989432229725</v>
       </c>
       <c r="H17" t="n">
-        <v>248.2942194637039</v>
+        <v>248.1710078236046</v>
       </c>
       <c r="I17" t="n">
-        <v>121.0792567189908</v>
+        <v>119.1720952782433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>60.4724850897346</v>
+        <v>58.56532364898709</v>
       </c>
       <c r="S17" t="n">
-        <v>119.6234367348303</v>
+        <v>117.7162752940827</v>
       </c>
       <c r="T17" t="n">
-        <v>133.6992167127163</v>
+        <v>131.7920552719688</v>
       </c>
       <c r="U17" t="n">
-        <v>161.9490200564214</v>
+        <v>160.0418586156739</v>
       </c>
       <c r="V17" t="n">
-        <v>238.3556256187198</v>
+        <v>236.4484641779723</v>
       </c>
       <c r="W17" t="n">
-        <v>259.8443358659979</v>
+        <v>257.9371744252504</v>
       </c>
       <c r="X17" t="n">
-        <v>280.334467827054</v>
+        <v>278.4273063863064</v>
       </c>
       <c r="Y17" t="n">
-        <v>296.8413058046385</v>
+        <v>294.934144363891</v>
       </c>
     </row>
     <row r="18">
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>77.13655079845226</v>
+        <v>75.22938935770475</v>
       </c>
       <c r="C18" t="n">
-        <v>81.52791633625246</v>
+        <v>81.40470469615315</v>
       </c>
       <c r="D18" t="n">
-        <v>58.04843271322368</v>
+        <v>56.14127127247616</v>
       </c>
       <c r="E18" t="n">
-        <v>66.46449780333766</v>
+        <v>66.34128616323835</v>
       </c>
       <c r="F18" t="n">
-        <v>53.8886297413206</v>
+        <v>53.76541810122129</v>
       </c>
       <c r="G18" t="n">
-        <v>47.94688431179556</v>
+        <v>46.03972287104804</v>
       </c>
       <c r="H18" t="n">
-        <v>22.83881138508139</v>
+        <v>20.93164994433387</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.76120130122806</v>
+        <v>8.85403986048054</v>
       </c>
       <c r="S18" t="n">
-        <v>80.71523526801181</v>
+        <v>80.37937681167523</v>
       </c>
       <c r="T18" t="n">
-        <v>110.7680958434065</v>
+        <v>108.860934402659</v>
       </c>
       <c r="U18" t="n">
-        <v>136.5447492295597</v>
+        <v>134.6375877888122</v>
       </c>
       <c r="V18" t="n">
-        <v>143.4039542980102</v>
+        <v>141.4967928572627</v>
       </c>
       <c r="W18" t="n">
-        <v>162.2983503095045</v>
+        <v>160.391188868757</v>
       </c>
       <c r="X18" t="n">
-        <v>116.3763523520624</v>
+        <v>114.4691909113149</v>
       </c>
       <c r="Y18" t="n">
-        <v>116.2860629258893</v>
+        <v>114.3789014851418</v>
       </c>
     </row>
     <row r="19">
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.43534733052222</v>
+        <v>88.5281858897747</v>
       </c>
       <c r="C19" t="n">
-        <v>77.85018824721276</v>
+        <v>75.94302680646524</v>
       </c>
       <c r="D19" t="n">
-        <v>59.21884016679728</v>
+        <v>57.31167872604976</v>
       </c>
       <c r="E19" t="n">
-        <v>57.03732979515409</v>
+        <v>55.13016835440658</v>
       </c>
       <c r="F19" t="n">
-        <v>54.24046537086797</v>
+        <v>54.11725373076865</v>
       </c>
       <c r="G19" t="n">
-        <v>78.59434650704368</v>
+        <v>76.68718506629617</v>
       </c>
       <c r="H19" t="n">
-        <v>72.8305396560245</v>
+        <v>70.92337821527698</v>
       </c>
       <c r="I19" t="n">
-        <v>66.05384207584321</v>
+        <v>64.14668063509569</v>
       </c>
       <c r="J19" t="n">
-        <v>3.962547265257697</v>
+        <v>2.055385824510182</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>86.11280872510621</v>
+        <v>85.98959708500689</v>
       </c>
       <c r="S19" t="n">
-        <v>134.6199651855572</v>
+        <v>132.7128037448097</v>
       </c>
       <c r="T19" t="n">
-        <v>136.7650067762182</v>
+        <v>136.6417951361189</v>
       </c>
       <c r="U19" t="n">
-        <v>196.9223965050758</v>
+        <v>195.0152350643283</v>
       </c>
       <c r="V19" t="n">
-        <v>161.169707488002</v>
+        <v>160.8338490316654</v>
       </c>
       <c r="W19" t="n">
-        <v>197.1263654851759</v>
+        <v>195.2192040444284</v>
       </c>
       <c r="X19" t="n">
-        <v>136.3130225376221</v>
+        <v>134.4058610968746</v>
       </c>
       <c r="Y19" t="n">
-        <v>129.1880205006797</v>
+        <v>127.2808590599322</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>293.3372088120655</v>
+        <v>291.430047371318</v>
       </c>
       <c r="C20" t="n">
-        <v>275.8762589195925</v>
+        <v>273.969097478845</v>
       </c>
       <c r="D20" t="n">
-        <v>265.2864087692679</v>
+        <v>263.3792473285204</v>
       </c>
       <c r="E20" t="n">
-        <v>292.5337372208467</v>
+        <v>290.6265757800992</v>
       </c>
       <c r="F20" t="n">
-        <v>291.8591216956655</v>
+        <v>315.5722514495488</v>
       </c>
       <c r="G20" t="n">
-        <v>300.2858134690891</v>
+        <v>323.9989432229725</v>
       </c>
       <c r="H20" t="n">
-        <v>227.5118167801213</v>
+        <v>248.1710078236046</v>
       </c>
       <c r="I20" t="n">
-        <v>121.0792567189908</v>
+        <v>119.1720952782433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>60.4724850897346</v>
+        <v>58.56532364898709</v>
       </c>
       <c r="S20" t="n">
-        <v>119.6234367348303</v>
+        <v>117.7162752940827</v>
       </c>
       <c r="T20" t="n">
-        <v>133.6992167127163</v>
+        <v>131.7920552719688</v>
       </c>
       <c r="U20" t="n">
-        <v>161.9490200564214</v>
+        <v>160.0418586156739</v>
       </c>
       <c r="V20" t="n">
-        <v>212.735334424089</v>
+        <v>236.4484641779723</v>
       </c>
       <c r="W20" t="n">
-        <v>259.8443358659979</v>
+        <v>257.9371744252504</v>
       </c>
       <c r="X20" t="n">
-        <v>280.334467827054</v>
+        <v>278.4273063863064</v>
       </c>
       <c r="Y20" t="n">
-        <v>296.8413058046385</v>
+        <v>294.934144363891</v>
       </c>
     </row>
     <row r="21">
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77.13655079845226</v>
+        <v>75.22938935770475</v>
       </c>
       <c r="C21" t="n">
-        <v>83.31186613690066</v>
+        <v>81.40470469615315</v>
       </c>
       <c r="D21" t="n">
-        <v>58.04843271322368</v>
+        <v>56.14127127247616</v>
       </c>
       <c r="E21" t="n">
-        <v>68.24844760398587</v>
+        <v>66.34128616323835</v>
       </c>
       <c r="F21" t="n">
-        <v>55.6725795419688</v>
+        <v>53.76541810122129</v>
       </c>
       <c r="G21" t="n">
-        <v>47.94688431179556</v>
+        <v>46.03972287104804</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2724589008505554</v>
+        <v>20.93164994433387</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.76120130122806</v>
+        <v>8.85403986048054</v>
       </c>
       <c r="S21" t="n">
-        <v>56.66624705779191</v>
+        <v>80.37937681167523</v>
       </c>
       <c r="T21" t="n">
-        <v>110.7680958434065</v>
+        <v>108.860934402659</v>
       </c>
       <c r="U21" t="n">
-        <v>136.5447492295597</v>
+        <v>134.6375877888122</v>
       </c>
       <c r="V21" t="n">
-        <v>143.4039542980102</v>
+        <v>141.4967928572627</v>
       </c>
       <c r="W21" t="n">
-        <v>136.6780591148737</v>
+        <v>160.391188868757</v>
       </c>
       <c r="X21" t="n">
-        <v>90.75606115743156</v>
+        <v>114.4691909113149</v>
       </c>
       <c r="Y21" t="n">
-        <v>116.2860629258893</v>
+        <v>114.3789014851418</v>
       </c>
     </row>
     <row r="22">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.43534733052222</v>
+        <v>88.5281858897747</v>
       </c>
       <c r="C22" t="n">
-        <v>77.85018824721276</v>
+        <v>75.94302680646524</v>
       </c>
       <c r="D22" t="n">
-        <v>59.21884016679728</v>
+        <v>57.31167872604976</v>
       </c>
       <c r="E22" t="n">
-        <v>31.41703860052326</v>
+        <v>55.13016835440658</v>
       </c>
       <c r="F22" t="n">
-        <v>30.40412397688534</v>
+        <v>54.11725373076865</v>
       </c>
       <c r="G22" t="n">
-        <v>78.59434650704368</v>
+        <v>76.68718506629617</v>
       </c>
       <c r="H22" t="n">
-        <v>72.8305396560245</v>
+        <v>70.92337821527698</v>
       </c>
       <c r="I22" t="n">
-        <v>66.05384207584321</v>
+        <v>64.14668063509569</v>
       </c>
       <c r="J22" t="n">
-        <v>3.962547265257697</v>
+        <v>2.055385824510182</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.33040604152359</v>
+        <v>85.98959708500689</v>
       </c>
       <c r="S22" t="n">
-        <v>134.6199651855572</v>
+        <v>132.7128037448097</v>
       </c>
       <c r="T22" t="n">
-        <v>138.5489565768664</v>
+        <v>136.6417951361189</v>
       </c>
       <c r="U22" t="n">
-        <v>196.9223965050758</v>
+        <v>195.0152350643283</v>
       </c>
       <c r="V22" t="n">
-        <v>162.7410104724129</v>
+        <v>160.8338490316654</v>
       </c>
       <c r="W22" t="n">
-        <v>197.1263654851759</v>
+        <v>195.2192040444284</v>
       </c>
       <c r="X22" t="n">
-        <v>136.3130225376221</v>
+        <v>134.4058610968746</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.5677293060489</v>
+        <v>127.2808590599322</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>293.3372088120655</v>
+        <v>291.430047371318</v>
       </c>
       <c r="C23" t="n">
-        <v>275.8762589195925</v>
+        <v>273.969097478845</v>
       </c>
       <c r="D23" t="n">
-        <v>265.2864087692679</v>
+        <v>263.3792473285204</v>
       </c>
       <c r="E23" t="n">
-        <v>292.5337372208467</v>
+        <v>200.2234584120275</v>
       </c>
       <c r="F23" t="n">
-        <v>317.4794128902964</v>
+        <v>212.9347430843447</v>
       </c>
       <c r="G23" t="n">
-        <v>325.90610466372</v>
+        <v>323.9989432229725</v>
       </c>
       <c r="H23" t="n">
-        <v>250.0781692643521</v>
+        <v>145.5334994584005</v>
       </c>
       <c r="I23" t="n">
-        <v>121.0792567189908</v>
+        <v>16.53458691303923</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>60.4724850897346</v>
+        <v>58.56532364898709</v>
       </c>
       <c r="S23" t="n">
-        <v>119.6234367348303</v>
+        <v>117.7162752940827</v>
       </c>
       <c r="T23" t="n">
-        <v>133.6992167127163</v>
+        <v>131.7920552719688</v>
       </c>
       <c r="U23" t="n">
-        <v>72.03297786887919</v>
+        <v>160.0418586156739</v>
       </c>
       <c r="V23" t="n">
-        <v>136.2711090570233</v>
+        <v>236.4484641779723</v>
       </c>
       <c r="W23" t="n">
-        <v>157.7598193043014</v>
+        <v>257.9371744252504</v>
       </c>
       <c r="X23" t="n">
-        <v>178.2499512653575</v>
+        <v>278.4273063863064</v>
       </c>
       <c r="Y23" t="n">
-        <v>296.8413058046385</v>
+        <v>294.934144363891</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.13655079845226</v>
+        <v>19.73473959305825</v>
       </c>
       <c r="C24" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>68.24844760398587</v>
+        <v>66.34128616323835</v>
       </c>
       <c r="F24" t="n">
-        <v>55.6725795419688</v>
+        <v>53.76541810122129</v>
       </c>
       <c r="G24" t="n">
-        <v>47.94688431179556</v>
+        <v>46.03972287104804</v>
       </c>
       <c r="H24" t="n">
-        <v>22.83881138508139</v>
+        <v>20.93164994433387</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.131697366108529</v>
+        <v>8.85403986048054</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>80.37937681167523</v>
       </c>
       <c r="T24" t="n">
-        <v>8.68357928171001</v>
+        <v>108.860934402659</v>
       </c>
       <c r="U24" t="n">
-        <v>34.46023266786321</v>
+        <v>134.6375877888122</v>
       </c>
       <c r="V24" t="n">
-        <v>143.4039542980102</v>
+        <v>141.4967928572627</v>
       </c>
       <c r="W24" t="n">
-        <v>60.21383374780802</v>
+        <v>160.391188868757</v>
       </c>
       <c r="X24" t="n">
-        <v>116.3763523520624</v>
+        <v>11.8316825461108</v>
       </c>
       <c r="Y24" t="n">
-        <v>116.2860629258893</v>
+        <v>11.74139311993768</v>
       </c>
     </row>
     <row r="25">
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.43534733052222</v>
+        <v>88.5281858897747</v>
       </c>
       <c r="C25" t="n">
-        <v>77.85018824721276</v>
+        <v>75.94302680646524</v>
       </c>
       <c r="D25" t="n">
-        <v>59.21884016679728</v>
+        <v>57.31167872604976</v>
       </c>
       <c r="E25" t="n">
-        <v>57.03732979515409</v>
+        <v>55.13016835440658</v>
       </c>
       <c r="F25" t="n">
-        <v>56.02441517151617</v>
+        <v>54.11725373076865</v>
       </c>
       <c r="G25" t="n">
-        <v>78.59434650704368</v>
+        <v>76.68718506629617</v>
       </c>
       <c r="H25" t="n">
-        <v>72.8305396560245</v>
+        <v>70.92337821527698</v>
       </c>
       <c r="I25" t="n">
-        <v>66.05384207584321</v>
+        <v>64.14668063509569</v>
       </c>
       <c r="J25" t="n">
-        <v>3.962547265257697</v>
+        <v>2.055385824510182</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>85.98959708500689</v>
       </c>
       <c r="S25" t="n">
-        <v>132.6006815237694</v>
+        <v>132.7128037448097</v>
       </c>
       <c r="T25" t="n">
-        <v>138.5489565768664</v>
+        <v>46.23867776804718</v>
       </c>
       <c r="U25" t="n">
-        <v>196.9223965050758</v>
+        <v>92.37772669912421</v>
       </c>
       <c r="V25" t="n">
-        <v>162.7410104724129</v>
+        <v>58.19634066646132</v>
       </c>
       <c r="W25" t="n">
-        <v>95.04184892347942</v>
+        <v>92.58169567922432</v>
       </c>
       <c r="X25" t="n">
-        <v>34.22850597592557</v>
+        <v>134.4058610968746</v>
       </c>
       <c r="Y25" t="n">
-        <v>27.10350393898321</v>
+        <v>127.2808590599322</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>333.8483134367198</v>
+        <v>230.845867719706</v>
       </c>
       <c r="C26" t="n">
-        <v>316.3873635442468</v>
+        <v>213.384917827233</v>
       </c>
       <c r="D26" t="n">
-        <v>305.7975133939222</v>
+        <v>305.4325760421125</v>
       </c>
       <c r="E26" t="n">
-        <v>333.044841845501</v>
+        <v>332.6799044936913</v>
       </c>
       <c r="F26" t="n">
-        <v>357.9905175149507</v>
+        <v>267.2224627950692</v>
       </c>
       <c r="G26" t="n">
-        <v>366.4172092883743</v>
+        <v>366.0522719365646</v>
       </c>
       <c r="H26" t="n">
-        <v>290.5892738890064</v>
+        <v>290.2243365371967</v>
       </c>
       <c r="I26" t="n">
-        <v>161.5903613436451</v>
+        <v>161.2254239918354</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>100.9835897143889</v>
+        <v>100.6186523625792</v>
       </c>
       <c r="S26" t="n">
-        <v>70.21849917194231</v>
+        <v>159.7696040076748</v>
       </c>
       <c r="T26" t="n">
-        <v>72.12580477567406</v>
+        <v>173.8453839855609</v>
       </c>
       <c r="U26" t="n">
-        <v>100.3756081193792</v>
+        <v>202.095187329266</v>
       </c>
       <c r="V26" t="n">
-        <v>176.7822136816776</v>
+        <v>278.5017928915644</v>
       </c>
       <c r="W26" t="n">
-        <v>300.3554404906523</v>
+        <v>299.9905031388425</v>
       </c>
       <c r="X26" t="n">
-        <v>320.8455724517083</v>
+        <v>320.4806350998986</v>
       </c>
       <c r="Y26" t="n">
-        <v>337.3524104292928</v>
+        <v>234.349964712279</v>
       </c>
     </row>
     <row r="27">
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>117.6476554231066</v>
+        <v>117.2827180712968</v>
       </c>
       <c r="C27" t="n">
-        <v>85.17923449989507</v>
+        <v>123.4580334097452</v>
       </c>
       <c r="D27" t="n">
-        <v>98.55953733787797</v>
+        <v>98.19459998606825</v>
       </c>
       <c r="E27" t="n">
-        <v>108.7595522286402</v>
+        <v>108.3946148768304</v>
       </c>
       <c r="F27" t="n">
-        <v>96.1836841666231</v>
+        <v>95.81874681481338</v>
       </c>
       <c r="G27" t="n">
-        <v>88.45798893644985</v>
+        <v>88.09305158464014</v>
       </c>
       <c r="H27" t="n">
-        <v>63.34991600973569</v>
+        <v>62.98497865792597</v>
       </c>
       <c r="I27" t="n">
-        <v>40.5111046246543</v>
+        <v>40.14616727284459</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>50.90736857407264</v>
       </c>
       <c r="S27" t="n">
-        <v>122.797642877077</v>
+        <v>32.0295881571956</v>
       </c>
       <c r="T27" t="n">
-        <v>151.2792004680608</v>
+        <v>48.27675475104702</v>
       </c>
       <c r="U27" t="n">
-        <v>177.055853854214</v>
+        <v>74.05340813720024</v>
       </c>
       <c r="V27" t="n">
-        <v>81.83054236096797</v>
+        <v>80.91261320565069</v>
       </c>
       <c r="W27" t="n">
-        <v>202.8094549341588</v>
+        <v>202.4445175823491</v>
       </c>
       <c r="X27" t="n">
-        <v>54.80294041502017</v>
+        <v>156.522519624907</v>
       </c>
       <c r="Y27" t="n">
-        <v>54.71265098884706</v>
+        <v>156.4322301987339</v>
       </c>
     </row>
     <row r="28">
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>130.9464519551765</v>
+        <v>27.94400623816271</v>
       </c>
       <c r="C28" t="n">
-        <v>118.3612928718671</v>
+        <v>15.35884715485325</v>
       </c>
       <c r="D28" t="n">
-        <v>99.72994479145157</v>
+        <v>99.36500743964186</v>
       </c>
       <c r="E28" t="n">
-        <v>97.54843441980839</v>
+        <v>97.18349706799867</v>
       </c>
       <c r="F28" t="n">
-        <v>96.53551979617046</v>
+        <v>96.17058244436075</v>
       </c>
       <c r="G28" t="n">
-        <v>119.105451131698</v>
+        <v>16.10300541468418</v>
       </c>
       <c r="H28" t="n">
-        <v>113.3416442806788</v>
+        <v>22.57358956079736</v>
       </c>
       <c r="I28" t="n">
-        <v>106.5649467004975</v>
+        <v>106.2000093486878</v>
       </c>
       <c r="J28" t="n">
-        <v>44.473651889912</v>
+        <v>44.10871453810228</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,31 +24645,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.27651502493361</v>
+        <v>36.91157767312389</v>
       </c>
       <c r="R28" t="n">
-        <v>26.32334658871218</v>
+        <v>128.042925798599</v>
       </c>
       <c r="S28" t="n">
-        <v>85.21502762266925</v>
+        <v>174.7661324584018</v>
       </c>
       <c r="T28" t="n">
-        <v>179.0600612015207</v>
+        <v>178.695123849711</v>
       </c>
       <c r="U28" t="n">
-        <v>135.3489845680336</v>
+        <v>237.0685637779204</v>
       </c>
       <c r="V28" t="n">
-        <v>203.2521150970672</v>
+        <v>202.8871777452575</v>
       </c>
       <c r="W28" t="n">
-        <v>237.6374701098302</v>
+        <v>237.2725327580205</v>
       </c>
       <c r="X28" t="n">
-        <v>176.8241271622764</v>
+        <v>176.4591898104667</v>
       </c>
       <c r="Y28" t="n">
-        <v>67.61460856363749</v>
+        <v>169.3341877735243</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>216.0334166958293</v>
+        <v>333.4833760849101</v>
       </c>
       <c r="C29" t="n">
-        <v>210.7409411775106</v>
+        <v>213.384917827233</v>
       </c>
       <c r="D29" t="n">
-        <v>290.0671332147282</v>
+        <v>305.4325760421125</v>
       </c>
       <c r="E29" t="n">
-        <v>317.3144616663071</v>
+        <v>230.0423961284872</v>
       </c>
       <c r="F29" t="n">
-        <v>342.2601373357567</v>
+        <v>357.625580163141</v>
       </c>
       <c r="G29" t="n">
-        <v>350.6868291091803</v>
+        <v>366.0522719365646</v>
       </c>
       <c r="H29" t="n">
-        <v>274.8588937098124</v>
+        <v>290.2243365371967</v>
       </c>
       <c r="I29" t="n">
-        <v>145.8599811644512</v>
+        <v>161.2254239918354</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>85.25320953519497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>144.4041611802906</v>
+        <v>67.34763063697818</v>
       </c>
       <c r="T29" t="n">
-        <v>158.4799411581766</v>
+        <v>173.8453839855609</v>
       </c>
       <c r="U29" t="n">
-        <v>186.7297445018818</v>
+        <v>202.095187329266</v>
       </c>
       <c r="V29" t="n">
-        <v>263.1363500641802</v>
+        <v>278.5017928915644</v>
       </c>
       <c r="W29" t="n">
-        <v>284.6250603114583</v>
+        <v>299.9905031388425</v>
       </c>
       <c r="X29" t="n">
-        <v>203.0306757108178</v>
+        <v>320.4806350998986</v>
       </c>
       <c r="Y29" t="n">
-        <v>219.5375136884024</v>
+        <v>336.9874730774831</v>
       </c>
     </row>
     <row r="30">
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>101.9172752439126</v>
+        <v>117.2827180712968</v>
       </c>
       <c r="C30" t="n">
-        <v>78.49919858696759</v>
+        <v>123.4580334097452</v>
       </c>
       <c r="D30" t="n">
-        <v>82.82915715868404</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>93.02917204944623</v>
+        <v>108.3946148768304</v>
       </c>
       <c r="F30" t="n">
-        <v>80.45330398742917</v>
+        <v>49.41324294496789</v>
       </c>
       <c r="G30" t="n">
-        <v>72.72760875725592</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>47.61953583054175</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>40.14616727284458</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>50.90736857407263</v>
       </c>
       <c r="S30" t="n">
-        <v>4.982746136186591</v>
+        <v>122.4327055252673</v>
       </c>
       <c r="T30" t="n">
-        <v>33.46430372717037</v>
+        <v>150.9142631162511</v>
       </c>
       <c r="U30" t="n">
-        <v>161.3254736750201</v>
+        <v>176.6909165024043</v>
       </c>
       <c r="V30" t="n">
-        <v>66.10016218177404</v>
+        <v>183.5501215708548</v>
       </c>
       <c r="W30" t="n">
-        <v>187.0790747549649</v>
+        <v>202.4445175823491</v>
       </c>
       <c r="X30" t="n">
-        <v>141.1570767975228</v>
+        <v>156.522519624907</v>
       </c>
       <c r="Y30" t="n">
-        <v>141.0667873713496</v>
+        <v>53.79472183352979</v>
       </c>
     </row>
     <row r="31">
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.2160717759826</v>
+        <v>27.94400623816273</v>
       </c>
       <c r="C31" t="n">
-        <v>102.6309126926731</v>
+        <v>117.9963555200573</v>
       </c>
       <c r="D31" t="n">
-        <v>83.99956461225764</v>
+        <v>99.36500743964186</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>6.780379699926897</v>
       </c>
       <c r="F31" t="n">
-        <v>80.80513961697653</v>
+        <v>96.17058244436075</v>
       </c>
       <c r="G31" t="n">
-        <v>103.375070952504</v>
+        <v>118.7405137798883</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>112.9767069288691</v>
       </c>
       <c r="I31" t="n">
-        <v>90.83456652130357</v>
+        <v>106.2000093486878</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>44.10871453810228</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.54613484573967</v>
+        <v>36.91157767312389</v>
       </c>
       <c r="R31" t="n">
-        <v>26.76499771309685</v>
+        <v>128.042925798599</v>
       </c>
       <c r="S31" t="n">
-        <v>159.4006896310175</v>
+        <v>174.7661324584018</v>
       </c>
       <c r="T31" t="n">
-        <v>163.3296810223268</v>
+        <v>76.05761548450693</v>
       </c>
       <c r="U31" t="n">
-        <v>221.7031209505362</v>
+        <v>237.0685637779204</v>
       </c>
       <c r="V31" t="n">
-        <v>187.5217349178733</v>
+        <v>202.8871777452575</v>
       </c>
       <c r="W31" t="n">
-        <v>119.8225733689398</v>
+        <v>237.2725327580205</v>
       </c>
       <c r="X31" t="n">
-        <v>161.0937469830824</v>
+        <v>176.4591898104667</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.9687449461401</v>
+        <v>66.69667940832022</v>
       </c>
     </row>
     <row r="32">
@@ -24922,16 +24922,16 @@
         <v>271.9137116543347</v>
       </c>
       <c r="D32" t="n">
-        <v>159.2393449423137</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E32" t="n">
-        <v>186.4866733938925</v>
+        <v>185.933681590385</v>
       </c>
       <c r="F32" t="n">
-        <v>223.6008234374965</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G32" t="n">
-        <v>219.8590408367658</v>
+        <v>219.3060490332582</v>
       </c>
       <c r="H32" t="n">
         <v>246.1156219990944</v>
@@ -24979,10 +24979,10 @@
         <v>234.3930783534621</v>
       </c>
       <c r="W32" t="n">
-        <v>255.8817886007402</v>
+        <v>153.2442802355362</v>
       </c>
       <c r="X32" t="n">
-        <v>276.3719205617963</v>
+        <v>185.9688031937245</v>
       </c>
       <c r="Y32" t="n">
         <v>292.8787585393808</v>
@@ -25046,16 +25046,16 @@
         <v>6.798654035970358</v>
       </c>
       <c r="S33" t="n">
-        <v>78.32399098716505</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>106.8055485781488</v>
+        <v>20.51075661518807</v>
       </c>
       <c r="U33" t="n">
-        <v>71.64099436341738</v>
+        <v>29.94469359909797</v>
       </c>
       <c r="V33" t="n">
-        <v>37.35689047105598</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W33" t="n">
         <v>158.3358030442468</v>
@@ -25064,7 +25064,7 @@
         <v>112.4138050868047</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.23899909893507</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="34">
@@ -25080,10 +25080,10 @@
         <v>73.88764098195506</v>
       </c>
       <c r="D34" t="n">
-        <v>55.25629290153958</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>53.0747825298964</v>
+        <v>46.24973689951243</v>
       </c>
       <c r="F34" t="n">
         <v>52.06186790625847</v>
@@ -25092,10 +25092,10 @@
         <v>74.63179924178598</v>
       </c>
       <c r="H34" t="n">
-        <v>68.8679923907668</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.09129481058551</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S34" t="n">
-        <v>130.6574179202995</v>
+        <v>28.01990955509541</v>
       </c>
       <c r="T34" t="n">
-        <v>32.5018927499122</v>
+        <v>31.94890094640465</v>
       </c>
       <c r="U34" t="n">
         <v>192.9598492398181</v>
       </c>
       <c r="V34" t="n">
-        <v>56.69394664545871</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W34" t="n">
-        <v>91.07930165822171</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X34" t="n">
         <v>132.3504752723644</v>
       </c>
       <c r="Y34" t="n">
-        <v>119.2436423083765</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>289.3746615468078</v>
+        <v>255.481482003213</v>
       </c>
       <c r="C35" t="n">
         <v>271.9137116543347</v>
@@ -25168,13 +25168,13 @@
         <v>313.5168656250387</v>
       </c>
       <c r="G35" t="n">
-        <v>219.8590408367658</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H35" t="n">
-        <v>144.0311054373979</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I35" t="n">
-        <v>15.03219289203662</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>56.50993782447691</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>115.6608894695726</v>
+        <v>13.0233811043685</v>
       </c>
       <c r="T35" t="n">
         <v>129.7366694474586</v>
@@ -25219,10 +25219,10 @@
         <v>255.8817886007402</v>
       </c>
       <c r="X35" t="n">
-        <v>186.455878374254</v>
+        <v>173.7344121965922</v>
       </c>
       <c r="Y35" t="n">
-        <v>292.8787585393808</v>
+        <v>190.2412501741767</v>
       </c>
     </row>
     <row r="36">
@@ -25235,10 +25235,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>79.34931887164296</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>54.08588544796598</v>
+        <v>53.54096508021686</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25250,7 +25250,7 @@
         <v>43.98433704653786</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>6.798654035970358</v>
       </c>
       <c r="S36" t="n">
-        <v>78.32399098716505</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>4.721032016452313</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U36" t="n">
         <v>132.582201964302</v>
@@ -25295,10 +25295,10 @@
         <v>139.4414070327525</v>
       </c>
       <c r="W36" t="n">
-        <v>122.6714122867545</v>
+        <v>55.69829467904276</v>
       </c>
       <c r="X36" t="n">
-        <v>10.32928852510818</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y36" t="n">
         <v>112.3235156606316</v>
@@ -25320,7 +25320,7 @@
         <v>55.25629290153958</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F37" t="n">
         <v>52.06186790625847</v>
@@ -25332,7 +25332,7 @@
         <v>68.8679923907668</v>
       </c>
       <c r="I37" t="n">
-        <v>62.09129481058551</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>83.93421126049671</v>
       </c>
       <c r="S37" t="n">
-        <v>130.6574179202995</v>
+        <v>28.01990955509541</v>
       </c>
       <c r="T37" t="n">
-        <v>134.5864093116087</v>
+        <v>31.94890094640465</v>
       </c>
       <c r="U37" t="n">
         <v>192.9598492398181</v>
       </c>
       <c r="V37" t="n">
-        <v>121.9372035495094</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W37" t="n">
-        <v>91.07930165822171</v>
+        <v>90.52630985471416</v>
       </c>
       <c r="X37" t="n">
-        <v>30.26595871066786</v>
+        <v>104.0386527148781</v>
       </c>
       <c r="Y37" t="n">
-        <v>23.1409566737255</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>255.9685571837425</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C38" t="n">
-        <v>169.8291950926382</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D38" t="n">
-        <v>159.2393449423137</v>
+        <v>158.6863531388061</v>
       </c>
       <c r="E38" t="n">
-        <v>288.571189955589</v>
+        <v>185.933681590385</v>
       </c>
       <c r="F38" t="n">
         <v>313.5168656250387</v>
       </c>
       <c r="G38" t="n">
-        <v>219.8590408367658</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H38" t="n">
-        <v>246.1156219990944</v>
+        <v>212.2224424554996</v>
       </c>
       <c r="I38" t="n">
         <v>117.1167094537331</v>
@@ -25444,7 +25444,7 @@
         <v>115.6608894695726</v>
       </c>
       <c r="T38" t="n">
-        <v>129.7366694474586</v>
+        <v>27.09916108225451</v>
       </c>
       <c r="U38" t="n">
         <v>157.9864727911637</v>
@@ -25475,10 +25475,10 @@
         <v>79.34931887164296</v>
       </c>
       <c r="D39" t="n">
-        <v>54.08588544796598</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>64.28590033872817</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>51.7100322767111</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>106.8055485781488</v>
+        <v>4.16804021294476</v>
       </c>
       <c r="U39" t="n">
-        <v>30.49768540260553</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V39" t="n">
-        <v>37.35689047105598</v>
+        <v>47.25770374410214</v>
       </c>
       <c r="W39" t="n">
-        <v>56.25128648255031</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X39" t="n">
         <v>112.4138050868047</v>
       </c>
       <c r="Y39" t="n">
-        <v>100.7314644602544</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="40">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>86.47280006526452</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D40" t="n">
         <v>55.25629290153958</v>
@@ -25563,10 +25563,10 @@
         <v>52.06186790625847</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H40" t="n">
-        <v>68.8679923907668</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>62.09129481058551</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>83.93421126049671</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>130.6574179202995</v>
       </c>
       <c r="T40" t="n">
-        <v>91.10529078611106</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U40" t="n">
-        <v>90.87533267812159</v>
+        <v>90.32234087461404</v>
       </c>
       <c r="V40" t="n">
-        <v>158.7784632071552</v>
+        <v>102.3753328252034</v>
       </c>
       <c r="W40" t="n">
-        <v>91.07930165822171</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X40" t="n">
         <v>132.3504752723644</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>234.7250334127995</v>
+        <v>333.48337608491</v>
       </c>
       <c r="C41" t="n">
-        <v>217.2640835203265</v>
+        <v>316.022426192437</v>
       </c>
       <c r="D41" t="n">
-        <v>306.9748001310502</v>
+        <v>305.4325760421124</v>
       </c>
       <c r="E41" t="n">
-        <v>334.2221285826291</v>
+        <v>230.0423961284872</v>
       </c>
       <c r="F41" t="n">
-        <v>258.8672374910304</v>
+        <v>357.6255801631409</v>
       </c>
       <c r="G41" t="n">
-        <v>367.5944960255023</v>
+        <v>366.0522719365645</v>
       </c>
       <c r="H41" t="n">
-        <v>291.7665606261344</v>
+        <v>290.2243365371966</v>
       </c>
       <c r="I41" t="n">
-        <v>162.7676480807732</v>
+        <v>161.2254239918354</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>13.81613724838569</v>
+        <v>10.21553499450741</v>
       </c>
       <c r="S41" t="n">
-        <v>161.3118280966127</v>
+        <v>159.7696040076748</v>
       </c>
       <c r="T41" t="n">
-        <v>175.3876080744987</v>
+        <v>173.8453839855609</v>
       </c>
       <c r="U41" t="n">
-        <v>203.6374114182038</v>
+        <v>202.095187329266</v>
       </c>
       <c r="V41" t="n">
-        <v>280.0440169805022</v>
+        <v>175.8642845263603</v>
       </c>
       <c r="W41" t="n">
-        <v>301.5327272277803</v>
+        <v>299.9905031388425</v>
       </c>
       <c r="X41" t="n">
-        <v>322.0228591888363</v>
+        <v>217.8431267346944</v>
       </c>
       <c r="Y41" t="n">
-        <v>338.5296971664209</v>
+        <v>336.9874730774831</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>118.8249421602347</v>
+        <v>117.2827180712968</v>
       </c>
       <c r="C42" t="n">
-        <v>125.0002574986831</v>
+        <v>123.4580334097452</v>
       </c>
       <c r="D42" t="n">
-        <v>99.73682407500607</v>
+        <v>98.19459998606825</v>
       </c>
       <c r="E42" t="n">
-        <v>9.636272204719944</v>
+        <v>5.757106511626347</v>
       </c>
       <c r="F42" t="n">
-        <v>97.36097090375119</v>
+        <v>95.81874681481338</v>
       </c>
       <c r="G42" t="n">
-        <v>89.63527567357795</v>
+        <v>88.09305158464014</v>
       </c>
       <c r="H42" t="n">
-        <v>64.52720274686376</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>41.68839136178239</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>52.44959266301044</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>23.67436285315682</v>
+        <v>83.43059429683461</v>
       </c>
       <c r="T42" t="n">
-        <v>152.4564872051889</v>
+        <v>48.27675475104701</v>
       </c>
       <c r="U42" t="n">
-        <v>77.93257383029382</v>
+        <v>176.6909165024043</v>
       </c>
       <c r="V42" t="n">
-        <v>185.0923456597926</v>
+        <v>183.5501215708548</v>
       </c>
       <c r="W42" t="n">
-        <v>203.9867416712869</v>
+        <v>202.4445175823491</v>
       </c>
       <c r="X42" t="n">
-        <v>158.0647437138448</v>
+        <v>156.522519624907</v>
       </c>
       <c r="Y42" t="n">
-        <v>69.62971508454034</v>
+        <v>156.4322301987339</v>
       </c>
     </row>
     <row r="43">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.77899948917327</v>
+        <v>130.5815146033668</v>
       </c>
       <c r="C43" t="n">
-        <v>119.5385796089951</v>
+        <v>117.9963555200573</v>
       </c>
       <c r="D43" t="n">
-        <v>100.9072315285797</v>
+        <v>99.36500743964186</v>
       </c>
       <c r="E43" t="n">
-        <v>98.72572115693649</v>
+        <v>97.18349706799867</v>
       </c>
       <c r="F43" t="n">
-        <v>97.71280653329856</v>
+        <v>96.17058244436075</v>
       </c>
       <c r="G43" t="n">
-        <v>120.2827378688261</v>
+        <v>118.7405137798883</v>
       </c>
       <c r="H43" t="n">
-        <v>114.5189310178069</v>
+        <v>112.9767069288691</v>
       </c>
       <c r="I43" t="n">
-        <v>107.7422334376256</v>
+        <v>106.2000093486878</v>
       </c>
       <c r="J43" t="n">
-        <v>45.65093862704008</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.45380176206169</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>29.28458312648849</v>
+        <v>128.042925798599</v>
       </c>
       <c r="S43" t="n">
-        <v>176.3083565473396</v>
+        <v>174.7661324584018</v>
       </c>
       <c r="T43" t="n">
-        <v>180.2373479386488</v>
+        <v>76.0576154845069</v>
       </c>
       <c r="U43" t="n">
-        <v>138.3102211058099</v>
+        <v>134.4310554127163</v>
       </c>
       <c r="V43" t="n">
-        <v>204.4294018341953</v>
+        <v>100.2496693800534</v>
       </c>
       <c r="W43" t="n">
-        <v>138.51419008591</v>
+        <v>227.8897076011749</v>
       </c>
       <c r="X43" t="n">
-        <v>178.0014138994045</v>
+        <v>176.4591898104667</v>
       </c>
       <c r="Y43" t="n">
-        <v>170.8764118624621</v>
+        <v>169.3341877735243</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>274.2917549859761</v>
+        <v>333.48337608491</v>
       </c>
       <c r="C44" t="n">
-        <v>333.2950304605688</v>
+        <v>316.022426192437</v>
       </c>
       <c r="D44" t="n">
-        <v>322.7051803102442</v>
+        <v>305.4325760421124</v>
       </c>
       <c r="E44" t="n">
-        <v>349.952508761823</v>
+        <v>332.6799044936913</v>
       </c>
       <c r="F44" t="n">
-        <v>374.8981844312727</v>
+        <v>267.2224627950691</v>
       </c>
       <c r="G44" t="n">
-        <v>383.3248762046963</v>
+        <v>263.4147635713604</v>
       </c>
       <c r="H44" t="n">
-        <v>307.4969408053284</v>
+        <v>187.5868281719925</v>
       </c>
       <c r="I44" t="n">
-        <v>178.4980282599672</v>
+        <v>58.58791562663131</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>50.54156692739949</v>
+        <v>100.6186523625792</v>
       </c>
       <c r="S44" t="n">
-        <v>177.0422082758066</v>
+        <v>159.7696040076748</v>
       </c>
       <c r="T44" t="n">
-        <v>191.1179882536926</v>
+        <v>173.8453839855609</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3677915973977</v>
+        <v>202.095187329266</v>
       </c>
       <c r="V44" t="n">
-        <v>295.7743971596962</v>
+        <v>278.5017928915644</v>
       </c>
       <c r="W44" t="n">
-        <v>240.7988820399086</v>
+        <v>299.9905031388425</v>
       </c>
       <c r="X44" t="n">
-        <v>337.7532393680303</v>
+        <v>320.4806350998985</v>
       </c>
       <c r="Y44" t="n">
-        <v>277.7958519785491</v>
+        <v>336.9874730774831</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>134.5553223394286</v>
+        <v>117.2827180712968</v>
       </c>
       <c r="C45" t="n">
-        <v>140.730637677877</v>
+        <v>123.4580334097452</v>
       </c>
       <c r="D45" t="n">
-        <v>115.4672042542</v>
+        <v>98.19459998606825</v>
       </c>
       <c r="E45" t="n">
-        <v>58.31752944165078</v>
+        <v>108.3946148768304</v>
       </c>
       <c r="F45" t="n">
-        <v>113.0913510829451</v>
+        <v>95.81874681481338</v>
       </c>
       <c r="G45" t="n">
-        <v>105.3656558527719</v>
+        <v>88.09305158464014</v>
       </c>
       <c r="H45" t="n">
-        <v>80.25758292605771</v>
+        <v>62.98497865792596</v>
       </c>
       <c r="I45" t="n">
-        <v>57.41877154097632</v>
+        <v>40.14616727284457</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>68.17997284220438</v>
+        <v>50.90736857407263</v>
       </c>
       <c r="S45" t="n">
-        <v>139.7053097933991</v>
+        <v>122.4327055252673</v>
       </c>
       <c r="T45" t="n">
-        <v>168.1868673843829</v>
+        <v>150.9142631162511</v>
       </c>
       <c r="U45" t="n">
-        <v>193.9635207705361</v>
+        <v>86.28779913433254</v>
       </c>
       <c r="V45" t="n">
-        <v>200.8227258389865</v>
+        <v>183.5501215708548</v>
       </c>
       <c r="W45" t="n">
-        <v>143.2528964834152</v>
+        <v>99.80700921714501</v>
       </c>
       <c r="X45" t="n">
-        <v>97.33089852597304</v>
+        <v>53.88501125970288</v>
       </c>
       <c r="Y45" t="n">
-        <v>97.24060909979993</v>
+        <v>53.79472183352976</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>147.8541188714985</v>
+        <v>130.5815146033668</v>
       </c>
       <c r="C46" t="n">
-        <v>135.2689597881891</v>
+        <v>15.35884715485324</v>
       </c>
       <c r="D46" t="n">
-        <v>116.6376117077736</v>
+        <v>99.36500743964186</v>
       </c>
       <c r="E46" t="n">
-        <v>114.4561013361304</v>
+        <v>97.18349706799867</v>
       </c>
       <c r="F46" t="n">
-        <v>113.4431867124925</v>
+        <v>96.17058244436075</v>
       </c>
       <c r="G46" t="n">
-        <v>136.01311804802</v>
+        <v>118.7405137798883</v>
       </c>
       <c r="H46" t="n">
-        <v>53.78508582993514</v>
+        <v>112.9767069288691</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12292391350812</v>
+        <v>106.2000093486878</v>
       </c>
       <c r="J46" t="n">
-        <v>61.38131880623402</v>
+        <v>44.10871453810227</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.18418194125563</v>
+        <v>36.91157767312388</v>
       </c>
       <c r="R46" t="n">
-        <v>145.3155300667307</v>
+        <v>25.40541743339489</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5745113594678</v>
+        <v>174.7661324584018</v>
       </c>
       <c r="T46" t="n">
-        <v>119.5035027507771</v>
+        <v>178.695123849711</v>
       </c>
       <c r="U46" t="n">
-        <v>254.3411680460521</v>
+        <v>237.0685637779204</v>
       </c>
       <c r="V46" t="n">
-        <v>220.1597820133892</v>
+        <v>202.8871777452575</v>
       </c>
       <c r="W46" t="n">
-        <v>254.5451370261522</v>
+        <v>237.2725327580205</v>
       </c>
       <c r="X46" t="n">
-        <v>193.7317940785984</v>
+        <v>86.05607244239491</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.606792041656</v>
+        <v>66.69667940832019</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490924.5596064278</v>
+        <v>493503.0219911105</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>509625.0060807748</v>
+        <v>493503.0219911105</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>566555.0012605857</v>
+        <v>570941.914645043</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>479704.2423132812</v>
+        <v>480896.1316602128</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>513455.3460257599</v>
+        <v>480896.1316602127</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>574820.2408483508</v>
+        <v>575229.1206132394</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>574820.2408483509</v>
+        <v>575229.1206132392</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>574820.2408483508</v>
+        <v>575229.1206132392</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>475859.2110680327</v>
+        <v>480896.1316602128</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>424483.6188854642</v>
+        <v>480896.1316602128</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>696384.8879094826</v>
+        <v>696384.8879094829</v>
       </c>
       <c r="C2" t="n">
-        <v>696384.8879094826</v>
+        <v>696384.8879094827</v>
       </c>
       <c r="D2" t="n">
-        <v>696384.8879094827</v>
+        <v>696384.8879094828</v>
       </c>
       <c r="E2" t="n">
-        <v>359382.5356509238</v>
+        <v>359382.5356509243</v>
       </c>
       <c r="F2" t="n">
         <v>359382.5356509243</v>
       </c>
       <c r="G2" t="n">
-        <v>366730.2855991103</v>
+        <v>369628.1541397789</v>
       </c>
       <c r="H2" t="n">
-        <v>378210.0411430179</v>
+        <v>369628.1541397789</v>
       </c>
       <c r="I2" t="n">
-        <v>415035.7687393572</v>
+        <v>419059.1253695221</v>
       </c>
       <c r="J2" t="n">
-        <v>333010.0519557922</v>
+        <v>334015.8858838489</v>
       </c>
       <c r="K2" t="n">
-        <v>364886.0943509109</v>
+        <v>334015.8858838488</v>
       </c>
       <c r="L2" t="n">
-        <v>422841.8283500249</v>
+        <v>423108.1532283742</v>
       </c>
       <c r="M2" t="n">
-        <v>422841.8283500248</v>
+        <v>423108.1532283741</v>
       </c>
       <c r="N2" t="n">
-        <v>422841.8283500247</v>
+        <v>423108.1532283741</v>
       </c>
       <c r="O2" t="n">
-        <v>329765.2349005289</v>
+        <v>334015.8858838491</v>
       </c>
       <c r="P2" t="n">
-        <v>286409.4369615029</v>
+        <v>334015.8858838491</v>
       </c>
     </row>
     <row r="3">
@@ -26380,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3076.625560887216</v>
+        <v>4113.400832374566</v>
       </c>
       <c r="H3" t="n">
-        <v>6431.25943516906</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20333.44327383547</v>
+        <v>27293.46886198343</v>
       </c>
       <c r="J3" t="n">
-        <v>36520.75090163207</v>
+        <v>35286.97163048181</v>
       </c>
       <c r="K3" t="n">
-        <v>12584.30414335515</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>25582.28904835101</v>
+        <v>39400.37246285639</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>220730.6825568449</v>
       </c>
       <c r="G4" t="n">
-        <v>225579.1240246667</v>
+        <v>227610.5198536342</v>
       </c>
       <c r="H4" t="n">
-        <v>232145.2049367848</v>
+        <v>227610.5198536342</v>
       </c>
       <c r="I4" t="n">
-        <v>253825.1472805574</v>
+        <v>256505.3216889293</v>
       </c>
       <c r="J4" t="n">
-        <v>198745.6431747462</v>
+        <v>199399.5792205975</v>
       </c>
       <c r="K4" t="n">
-        <v>220150.1084671571</v>
+        <v>199399.5792205975</v>
       </c>
       <c r="L4" t="n">
-        <v>259066.8435343119</v>
+        <v>259224.2061476247</v>
       </c>
       <c r="M4" t="n">
-        <v>259066.8435343119</v>
+        <v>259224.2061476247</v>
       </c>
       <c r="N4" t="n">
-        <v>259066.8435343119</v>
+        <v>259224.2061476247</v>
       </c>
       <c r="O4" t="n">
-        <v>196636.0475691092</v>
+        <v>199399.5792205975</v>
       </c>
       <c r="P4" t="n">
-        <v>168448.5722035237</v>
+        <v>199399.5792205975</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>7243.556814126696</v>
       </c>
       <c r="G5" t="n">
-        <v>7623.949675065025</v>
+        <v>7675.818682347817</v>
       </c>
       <c r="H5" t="n">
-        <v>9073.199231819168</v>
+        <v>7675.818682347817</v>
       </c>
       <c r="I5" t="n">
-        <v>13722.22413413676</v>
+        <v>13916.17919095223</v>
       </c>
       <c r="J5" t="n">
-        <v>10316.4960794467</v>
+        <v>10380.79789932925</v>
       </c>
       <c r="K5" t="n">
-        <v>11638.93341073136</v>
+        <v>10380.79789932925</v>
       </c>
       <c r="L5" t="n">
-        <v>14055.35152017971</v>
+        <v>14088.97342183297</v>
       </c>
       <c r="M5" t="n">
-        <v>14055.35152017971</v>
+        <v>14088.97342183297</v>
       </c>
       <c r="N5" t="n">
-        <v>14055.35152017971</v>
+        <v>14088.97342183297</v>
       </c>
       <c r="O5" t="n">
-        <v>10109.05861286367</v>
+        <v>10380.79789932925</v>
       </c>
       <c r="P5" t="n">
-        <v>7337.371724824869</v>
+        <v>10380.79789932925</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>215732.6676370897</v>
+        <v>215688.5318584089</v>
       </c>
       <c r="C6" t="n">
-        <v>215732.6676370897</v>
+        <v>215688.5318584087</v>
       </c>
       <c r="D6" t="n">
-        <v>215732.6676370898</v>
+        <v>215688.5318584088</v>
       </c>
       <c r="E6" t="n">
-        <v>62478.66167859672</v>
+        <v>52522.69200995845</v>
       </c>
       <c r="F6" t="n">
-        <v>131408.2962799527</v>
+        <v>121452.326611314</v>
       </c>
       <c r="G6" t="n">
-        <v>130450.5863384914</v>
+        <v>120573.7868230441</v>
       </c>
       <c r="H6" t="n">
-        <v>130560.377539245</v>
+        <v>124687.1876554186</v>
       </c>
       <c r="I6" t="n">
-        <v>127154.9540508276</v>
+        <v>113143.3797742712</v>
       </c>
       <c r="J6" t="n">
-        <v>87427.16179996716</v>
+        <v>78246.48953047588</v>
       </c>
       <c r="K6" t="n">
-        <v>120512.7483296672</v>
+        <v>113533.4611609577</v>
       </c>
       <c r="L6" t="n">
-        <v>124137.3442471824</v>
+        <v>102312.9143973464</v>
       </c>
       <c r="M6" t="n">
-        <v>149719.6332955332</v>
+        <v>141713.2868602027</v>
       </c>
       <c r="N6" t="n">
-        <v>149719.6332955331</v>
+        <v>141713.2868602027</v>
       </c>
       <c r="O6" t="n">
-        <v>123020.1287185561</v>
+        <v>113533.4611609579</v>
       </c>
       <c r="P6" t="n">
-        <v>110623.4930331543</v>
+        <v>113533.4611609579</v>
       </c>
     </row>
   </sheetData>
@@ -26700,19 +26700,19 @@
         <v>86.16204325169439</v>
       </c>
       <c r="G2" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="H2" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="I2" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="J2" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="K2" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="L2" t="n">
         <v>93.35918011667277</v>
@@ -26724,10 +26724,10 @@
         <v>93.35918011667277</v>
       </c>
       <c r="O2" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="P2" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
     </row>
     <row r="3">
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="J4" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L4" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M4" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N4" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O4" t="n">
-        <v>100.3005667610483</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P4" t="n">
-        <v>76.46422536706568</v>
+        <v>102.6375083652041</v>
       </c>
     </row>
   </sheetData>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.234589599720692</v>
+        <v>5.141751040468208</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>45.65093862704008</v>
+        <v>44.10871453810227</v>
       </c>
       <c r="K2" t="n">
-        <v>15.73038017919394</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>23.83634139398263</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>76.46422536706568</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.234589599720692</v>
+        <v>5.141751040468208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>45.65093862704008</v>
+        <v>44.10871453810227</v>
       </c>
       <c r="P2" t="n">
-        <v>15.73038017919394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.83634139398263</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="C17" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="D17" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="E17" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="F17" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="G17" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="H17" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="I17" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="S17" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="T17" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="U17" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="V17" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="W17" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="X17" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="Y17" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
     </row>
     <row r="18">
@@ -28642,25 +28642,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="C18" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="D18" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="E18" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="F18" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="G18" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="H18" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="S18" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="T18" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="U18" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="V18" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="W18" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="X18" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="Y18" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
     </row>
     <row r="19">
@@ -28721,31 +28721,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="C19" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="D19" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="E19" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="F19" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="G19" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="H19" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="I19" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="J19" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -28769,28 +28769,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="S19" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="T19" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="U19" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="V19" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="W19" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="X19" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="Y19" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="C20" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="D20" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="E20" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="F20" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="G20" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="H20" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="I20" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28848,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="S20" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="T20" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="U20" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="V20" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="W20" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="X20" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="Y20" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
     </row>
     <row r="21">
@@ -28879,25 +28879,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="C21" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="D21" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="E21" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="F21" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="G21" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="H21" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="S21" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="T21" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="U21" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="V21" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="W21" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="X21" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="Y21" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
     </row>
     <row r="22">
@@ -28958,31 +28958,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="C22" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="D22" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="E22" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="F22" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="G22" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="H22" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="I22" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="J22" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="K22" t="n">
         <v>22.26949182588285</v>
@@ -29006,28 +29006,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="S22" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="T22" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="U22" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="V22" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="W22" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="X22" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="C23" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="D23" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="E23" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="F23" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="G23" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="H23" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="I23" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29085,28 +29085,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="S23" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="T23" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="U23" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="V23" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="W23" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="X23" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="Y23" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
     </row>
     <row r="24">
@@ -29116,25 +29116,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="C24" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="D24" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="E24" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="F24" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="G24" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="H24" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -29164,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="S24" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="T24" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="U24" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="V24" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="W24" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="X24" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="Y24" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
     </row>
     <row r="25">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="C25" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="D25" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="E25" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="F25" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="G25" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="H25" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="I25" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="J25" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="K25" t="n">
-        <v>89.39663285141508</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>65.75876202946202</v>
       </c>
       <c r="M25" t="n">
-        <v>33.78592541035709</v>
+        <v>63.0536314033635</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>58.50533598597549</v>
       </c>
       <c r="O25" t="n">
-        <v>77.49938864765684</v>
+        <v>78.05238045116441</v>
       </c>
       <c r="P25" t="n">
-        <v>89.39663285141508</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="R25" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="S25" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="T25" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="U25" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="V25" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="W25" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="X25" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
       <c r="Y25" t="n">
-        <v>89.39663285141508</v>
+        <v>91.30379429216259</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="C26" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="D26" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="E26" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="F26" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="G26" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="H26" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="I26" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29322,28 +29322,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="S26" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="T26" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="U26" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="V26" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="W26" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="X26" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="Y26" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
     </row>
     <row r="27">
@@ -29353,28 +29353,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="C27" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="D27" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="E27" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="F27" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="G27" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="H27" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="I27" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29401,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="S27" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="T27" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="U27" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="V27" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="W27" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="X27" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="Y27" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="C28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="D28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="E28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="F28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="G28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="H28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="I28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="J28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="K28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="L28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="M28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="N28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="O28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="P28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="R28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="S28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="T28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="U28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="V28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="W28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="X28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="Y28" t="n">
-        <v>48.88552822676078</v>
+        <v>49.25046557857049</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="C29" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="D29" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="E29" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="F29" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="G29" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="H29" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="I29" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -29559,28 +29559,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="S29" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="T29" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="U29" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="V29" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="W29" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="X29" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="Y29" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
     </row>
     <row r="30">
@@ -29590,28 +29590,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="C30" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="D30" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="E30" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="F30" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="G30" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="H30" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="I30" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -29638,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="S30" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="T30" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="U30" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="V30" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="W30" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="X30" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="Y30" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="C31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="D31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="E31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="F31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="G31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="H31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="I31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="J31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="K31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="L31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="M31" t="n">
-        <v>41.51309996023268</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="N31" t="n">
-        <v>57.95234418246793</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="P31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="R31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="S31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="T31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="U31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="V31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="W31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="X31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="Y31" t="n">
-        <v>64.61590840595471</v>
+        <v>49.2504655785705</v>
       </c>
     </row>
     <row r="32">
@@ -29936,13 +29936,13 @@
         <v>93.35918011667277</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>75.04748310488793</v>
       </c>
       <c r="M34" t="n">
-        <v>41.44532807977291</v>
+        <v>26.53981326821111</v>
       </c>
       <c r="N34" t="n">
-        <v>57.95234418246793</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -30170,19 +30170,19 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>93.35918011667277</v>
+        <v>85.97286803083466</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>62.50063959985593</v>
+        <v>63.05363140336348</v>
       </c>
       <c r="N37" t="n">
-        <v>50.03538339629431</v>
+        <v>58.50533598597548</v>
       </c>
       <c r="O37" t="n">
-        <v>77.49938864765684</v>
+        <v>78.0523804511644</v>
       </c>
       <c r="P37" t="n">
         <v>2.721440735106512</v>
@@ -30410,16 +30410,16 @@
         <v>93.35918011667277</v>
       </c>
       <c r="L40" t="n">
-        <v>54.58367881368235</v>
+        <v>75.04748310488793</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>63.05363140336348</v>
       </c>
       <c r="N40" t="n">
-        <v>57.95234418246793</v>
+        <v>54.12392124641383</v>
       </c>
       <c r="O40" t="n">
-        <v>77.49938864765684</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>2.721440735106512</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="C41" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="D41" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="E41" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="F41" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="G41" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="H41" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="I41" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="S41" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="T41" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="U41" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="V41" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="W41" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="X41" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="C42" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="D42" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="E42" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="F42" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="G42" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="H42" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="I42" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="S42" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="T42" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="U42" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="V42" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="W42" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="X42" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="Y42" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="C43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="D43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="E43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="F43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="G43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="H43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="I43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="J43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="K43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="L43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="M43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="N43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="O43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="P43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="R43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="S43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="T43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="U43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="V43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="W43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="X43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.70824148963269</v>
+        <v>49.25046557857051</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="C44" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="D44" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="E44" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="F44" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="G44" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="H44" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="I44" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="S44" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="T44" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="U44" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="V44" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="W44" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="X44" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="C45" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="D45" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="E45" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="F45" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="G45" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="H45" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="I45" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="S45" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="T45" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="U45" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="V45" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="W45" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="X45" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="Y45" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="C46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="D46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="E46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="F46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="G46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="H46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="I46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="J46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="K46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="L46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="M46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="N46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="O46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="P46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="R46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="S46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="T46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="U46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="V46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="W46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="X46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.97786131043875</v>
+        <v>49.25046557857051</v>
       </c>
     </row>
   </sheetData>
@@ -35886,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35898,10 +35898,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.711871020824032</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.711871020824032</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.711871020824032</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.783949800648202</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36360,19 +36360,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>102.0845165616965</v>
+        <v>7.924825914033245</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N23" t="n">
-        <v>7.394177213697703</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O23" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P23" t="n">
         <v>90.5657124162131</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M24" t="n">
-        <v>27.86437598008326</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N24" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O24" t="n">
-        <v>102.0845165616965</v>
+        <v>98.49053833024634</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,25 +36518,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>67.12714102553223</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>27.59002526031614</v>
+        <v>93.34878728977816</v>
       </c>
       <c r="M25" t="n">
-        <v>73.36980237219768</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N25" t="n">
-        <v>44.13217237922859</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O25" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P25" t="n">
-        <v>86.67519211630857</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.234589599720692</v>
+        <v>5.141751040468208</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,16 +36600,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>7.394177213697701</v>
+        <v>7.924825914033245</v>
       </c>
       <c r="M26" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N26" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O26" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>102.0845165616965</v>
+        <v>28.39502468041879</v>
       </c>
       <c r="M27" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N27" t="n">
-        <v>97.9598896299108</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>26.61603640087792</v>
+        <v>26.98097375268764</v>
       </c>
       <c r="L28" t="n">
-        <v>76.47555348707692</v>
+        <v>76.84049083888664</v>
       </c>
       <c r="M28" t="n">
-        <v>88.46940518860137</v>
+        <v>88.83434254041109</v>
       </c>
       <c r="N28" t="n">
-        <v>93.01770060598938</v>
+        <v>93.38263795779909</v>
       </c>
       <c r="O28" t="n">
-        <v>73.47065614080046</v>
+        <v>73.83559349261017</v>
       </c>
       <c r="P28" t="n">
-        <v>46.16408749165426</v>
+        <v>46.52902484346398</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36834,19 +36834,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>102.0845165616965</v>
+        <v>7.924825914033217</v>
       </c>
       <c r="L29" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N29" t="n">
-        <v>7.394177213697703</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>98.49053833024631</v>
       </c>
       <c r="M30" t="n">
-        <v>27.86437598008326</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N30" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P30" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>42.34641658007186</v>
+        <v>26.98097375268765</v>
       </c>
       <c r="L31" t="n">
-        <v>92.20593366627085</v>
+        <v>76.84049083888664</v>
       </c>
       <c r="M31" t="n">
-        <v>81.09697692207327</v>
+        <v>88.83434254041109</v>
       </c>
       <c r="N31" t="n">
-        <v>102.0845165616965</v>
+        <v>93.38263795779909</v>
       </c>
       <c r="O31" t="n">
-        <v>24.58512791403967</v>
+        <v>73.83559349261017</v>
       </c>
       <c r="P31" t="n">
-        <v>61.8944676708482</v>
+        <v>46.52902484346399</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37071,19 +37071,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>102.0845165616965</v>
+        <v>7.924825914033217</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M32" t="n">
-        <v>7.394177213697703</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N32" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O32" t="n">
-        <v>102.0845165616965</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L33" t="n">
-        <v>102.0845165616965</v>
+        <v>98.49053833024631</v>
       </c>
       <c r="M33" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N33" t="n">
-        <v>27.86437598008324</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,13 +37232,13 @@
         <v>71.08968829078992</v>
       </c>
       <c r="L34" t="n">
-        <v>27.59002526031614</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M34" t="n">
-        <v>81.02920504161349</v>
+        <v>66.12369023005169</v>
       </c>
       <c r="N34" t="n">
-        <v>102.0845165616965</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O34" t="n">
         <v>24.58512791403967</v>
@@ -37308,19 +37308,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>102.0845165616965</v>
+        <v>7.924825914033217</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>7.394177213697703</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N35" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O35" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37393,16 +37393,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>27.86437598008326</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N36" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O36" t="n">
-        <v>102.0845165616965</v>
+        <v>28.39502468041878</v>
       </c>
       <c r="P36" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37466,19 +37466,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>71.08968829078992</v>
+        <v>63.70337620495181</v>
       </c>
       <c r="L37" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M37" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N37" t="n">
-        <v>94.1675557755229</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O37" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>7.394177213697701</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>102.0845165616965</v>
+        <v>7.924825914033217</v>
       </c>
       <c r="M38" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N38" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37630,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>97.95988962991082</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N39" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O39" t="n">
-        <v>102.0845165616965</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P39" t="n">
-        <v>102.0845165616965</v>
+        <v>98.49053833024634</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37706,16 +37706,16 @@
         <v>71.08968829078992</v>
       </c>
       <c r="L40" t="n">
-        <v>82.17370407399849</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M40" t="n">
-        <v>39.58387696184059</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N40" t="n">
-        <v>102.0845165616965</v>
+        <v>98.25609362564242</v>
       </c>
       <c r="O40" t="n">
-        <v>102.0845165616965</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L41" t="n">
-        <v>100.3005667610483</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>100.3005667610483</v>
+        <v>7.924825914033268</v>
       </c>
       <c r="N41" t="n">
-        <v>96.24801860908677</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O41" t="n">
-        <v>100.3005667610483</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>100.3005667610483</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M42" t="n">
-        <v>100.3005667610483</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N42" t="n">
-        <v>96.24801860908677</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>100.3005667610483</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>28.39502468041878</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>25.43874966374984</v>
+        <v>26.98097375268765</v>
       </c>
       <c r="L43" t="n">
-        <v>75.29826674994882</v>
+        <v>76.84049083888664</v>
       </c>
       <c r="M43" t="n">
-        <v>87.29211845147327</v>
+        <v>88.83434254041109</v>
       </c>
       <c r="N43" t="n">
-        <v>91.84041386886128</v>
+        <v>93.38263795779909</v>
       </c>
       <c r="O43" t="n">
-        <v>72.29336940367236</v>
+        <v>73.83559349261017</v>
       </c>
       <c r="P43" t="n">
-        <v>44.98680075452618</v>
+        <v>46.52902484346399</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>76.46422536706568</v>
+        <v>7.924825914033268</v>
       </c>
       <c r="N44" t="n">
-        <v>73.37476171587112</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O44" t="n">
-        <v>76.46422536706568</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P44" t="n">
-        <v>76.46422536706568</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L45" t="n">
-        <v>76.46422536706568</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>73.37476171587112</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N45" t="n">
-        <v>76.46422536706568</v>
+        <v>98.49053833024637</v>
       </c>
       <c r="O45" t="n">
-        <v>76.46422536706568</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>9.708369484555902</v>
+        <v>26.98097375268765</v>
       </c>
       <c r="L46" t="n">
-        <v>59.56788657075489</v>
+        <v>76.84049083888664</v>
       </c>
       <c r="M46" t="n">
-        <v>71.56173827227934</v>
+        <v>88.83434254041109</v>
       </c>
       <c r="N46" t="n">
-        <v>76.11003368966735</v>
+        <v>93.38263795779909</v>
       </c>
       <c r="O46" t="n">
-        <v>56.56298922447843</v>
+        <v>73.83559349261017</v>
       </c>
       <c r="P46" t="n">
-        <v>29.25642057533224</v>
+        <v>46.52902484346399</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
